--- a/elkem_financial_data.xlsx
+++ b/elkem_financial_data.xlsx
@@ -4648,7 +4648,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I43"/>
+  <dimension ref="A1:I26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4657,29 +4657,45 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="H1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2021</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
     </row>
     <row r="2">
@@ -4809,544 +4825,544 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Cost of goods sold</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4251156000</v>
+        <v>1358684000</v>
       </c>
       <c r="C6" t="n">
-        <v>6847021000</v>
+        <v>2438997000</v>
       </c>
       <c r="D6" t="n">
-        <v>6899039000</v>
+        <v>2559950000</v>
       </c>
       <c r="E6" t="n">
-        <v>8125907000</v>
+        <v>2857634000</v>
       </c>
       <c r="F6" t="n">
-        <v>12023000000</v>
+        <v>3449000000</v>
       </c>
       <c r="G6" t="n">
-        <v>11512000000</v>
+        <v>3696000000</v>
       </c>
       <c r="H6" t="n">
-        <v>12858000000</v>
+        <v>4028000000</v>
       </c>
       <c r="I6" t="n">
-        <v/>
+        <v>4530000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Employee benefit expenses</t>
+          <t>Amortisation and depreciation</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1358684000</v>
+        <v>394347000</v>
       </c>
       <c r="C7" t="n">
-        <v>2438997000</v>
+        <v>674383000</v>
       </c>
       <c r="D7" t="n">
-        <v>2559950000</v>
+        <v>717781000</v>
       </c>
       <c r="E7" t="n">
-        <v>2857634000</v>
+        <v>776023000</v>
       </c>
       <c r="F7" t="n">
-        <v>3449000000</v>
+        <v>1263000000</v>
       </c>
       <c r="G7" t="n">
-        <v>3696000000</v>
+        <v>1456000000</v>
       </c>
       <c r="H7" t="n">
-        <v>4028000000</v>
+        <v>1710000000</v>
       </c>
       <c r="I7" t="n">
-        <v>4530000000</v>
+        <v>1816000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Amortisation and depreciation</t>
+          <t>Impairment losses</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>394347000</v>
+        <v>730000</v>
       </c>
       <c r="C8" t="n">
-        <v>674383000</v>
+        <v>1813000</v>
       </c>
       <c r="D8" t="n">
-        <v>717781000</v>
+        <v>11818000</v>
       </c>
       <c r="E8" t="n">
-        <v>776023000</v>
+        <v>16809000</v>
       </c>
       <c r="F8" t="n">
-        <v>1263000000</v>
+        <v>8000000</v>
       </c>
       <c r="G8" t="n">
-        <v>1456000000</v>
+        <v>11000000</v>
       </c>
       <c r="H8" t="n">
-        <v>1710000000</v>
+        <v>17000000</v>
       </c>
       <c r="I8" t="n">
-        <v>1816000000</v>
+        <v>76000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Impairment losses</t>
+          <t>Total expenses</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>730000</v>
+        <v>8040936000</v>
       </c>
       <c r="C9" t="n">
-        <v>1813000</v>
+        <v>13076044000</v>
       </c>
       <c r="D9" t="n">
-        <v>11818000</v>
+        <v>13285540000</v>
       </c>
       <c r="E9" t="n">
-        <v>16809000</v>
+        <v>15302934000</v>
       </c>
       <c r="F9" t="n">
-        <v>8000000</v>
+        <v>21745000000</v>
       </c>
       <c r="G9" t="n">
-        <v>11000000</v>
+        <v>21284000000</v>
       </c>
       <c r="H9" t="n">
-        <v>17000000</v>
+        <v>23864000000</v>
       </c>
       <c r="I9" t="n">
-        <v>76000000</v>
+        <v>27932000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Other operating expences</t>
+          <t>Operating profit</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1982864000</v>
+        <v>611416000</v>
       </c>
       <c r="C10" t="n">
-        <v>3048051000</v>
+        <v>1465013000</v>
       </c>
       <c r="D10" t="n">
-        <v>3149390000</v>
+        <v>940629000</v>
       </c>
       <c r="E10" t="n">
-        <v/>
+        <v>1354948000</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>4142000000</v>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>1384000000</v>
       </c>
       <c r="H10" t="n">
-        <v/>
+        <v>827000000</v>
       </c>
       <c r="I10" t="n">
-        <v/>
+        <v>5785000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Other gains and losses</t>
+          <t>Finance income and expenses</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>53155000</v>
+        <v>417621000</v>
       </c>
       <c r="C11" t="n">
-        <v/>
+        <v>577787000</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>1309786000</v>
       </c>
       <c r="E11" t="n">
-        <v>-49313000</v>
+        <v>940629000</v>
       </c>
       <c r="F11" t="n">
-        <v>380000000</v>
+        <v>1971000000</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>4142000000</v>
       </c>
       <c r="H11" t="n">
-        <v/>
+        <v>1384000000</v>
       </c>
       <c r="I11" t="n">
-        <v/>
+        <v>827000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total expenses</t>
+          <t>Total finance income</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>8040936000</v>
+        <v>-262045000</v>
       </c>
       <c r="C12" t="n">
-        <v>13076044000</v>
+        <v>78819000</v>
       </c>
       <c r="D12" t="n">
-        <v>13285540000</v>
+        <v>44747000</v>
       </c>
       <c r="E12" t="n">
-        <v>15302934000</v>
+        <v>53363000</v>
       </c>
       <c r="F12" t="n">
-        <v>21745000000</v>
+        <v>19000000</v>
       </c>
       <c r="G12" t="n">
-        <v>21284000000</v>
+        <v>29000000</v>
       </c>
       <c r="H12" t="n">
-        <v>23864000000</v>
+        <v>16000000</v>
       </c>
       <c r="I12" t="n">
-        <v>27932000000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Operating profit</t>
+          <t>Total finance expenses</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>611416000</v>
+        <v>-42953000</v>
       </c>
       <c r="C13" t="n">
-        <v>1465013000</v>
+        <v>121534000</v>
       </c>
       <c r="D13" t="n">
-        <v>940629000</v>
+        <v>38839000</v>
       </c>
       <c r="E13" t="n">
-        <v>1354948000</v>
+        <v>127077000</v>
       </c>
       <c r="F13" t="n">
-        <v>4142000000</v>
+        <v>369000000</v>
       </c>
       <c r="G13" t="n">
-        <v>1384000000</v>
+        <v>279000000</v>
       </c>
       <c r="H13" t="n">
-        <v>827000000</v>
+        <v>259000000</v>
       </c>
       <c r="I13" t="n">
-        <v>5785000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Finance income and expenses</t>
+          <t>Net finance</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>417621000</v>
+        <v>-219092000</v>
       </c>
       <c r="C14" t="n">
-        <v>577787000</v>
+        <v>-42715000</v>
       </c>
       <c r="D14" t="n">
-        <v>1309786000</v>
+        <v>5908000</v>
       </c>
       <c r="E14" t="n">
-        <v>940629000</v>
+        <v>-73714000</v>
       </c>
       <c r="F14" t="n">
-        <v>1971000000</v>
+        <v>-350000000</v>
       </c>
       <c r="G14" t="n">
-        <v>4142000000</v>
+        <v>-250000000</v>
       </c>
       <c r="H14" t="n">
-        <v>1384000000</v>
+        <v>-243000000</v>
       </c>
       <c r="I14" t="n">
-        <v>827000000</v>
+        <v>42000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Income from investments in subsidiaries and associated companies</t>
+          <t>Profit before tax</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-262045000</v>
+        <v>392324000</v>
       </c>
       <c r="C15" t="n">
-        <v/>
+        <v>1422298000</v>
       </c>
       <c r="D15" t="n">
-        <v>22130000</v>
+        <v>946537000</v>
       </c>
       <c r="E15" t="n">
-        <v>34144000</v>
+        <v>1281234000</v>
       </c>
       <c r="F15" t="n">
-        <v/>
+        <v>3792000000</v>
       </c>
       <c r="G15" t="n">
-        <v/>
+        <v>1134000000</v>
       </c>
       <c r="H15" t="n">
-        <v>-15000000</v>
+        <v>584000000</v>
       </c>
       <c r="I15" t="n">
-        <v/>
+        <v>5827000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Total finance income</t>
+          <t>Income tax (expense) benefit</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-262045000</v>
+        <v>169802000</v>
       </c>
       <c r="C16" t="n">
-        <v>78819000</v>
+        <v>462529000</v>
       </c>
       <c r="D16" t="n">
-        <v>44747000</v>
+        <v>188568000</v>
       </c>
       <c r="E16" t="n">
-        <v>53363000</v>
+        <v>269390000</v>
       </c>
       <c r="F16" t="n">
-        <v>19000000</v>
+        <v>425000000</v>
       </c>
       <c r="G16" t="n">
-        <v>29000000</v>
+        <v>237000000</v>
       </c>
       <c r="H16" t="n">
-        <v>16000000</v>
+        <v>306000000</v>
       </c>
       <c r="I16" t="n">
-        <v>77000000</v>
+        <v>1163000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Finance expences net</t>
+          <t>Profit after tax</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-42953000</v>
+        <v>222522000</v>
       </c>
       <c r="C17" t="n">
-        <v/>
+        <v>959769000</v>
       </c>
       <c r="D17" t="n">
-        <v/>
+        <v>757969000</v>
       </c>
       <c r="E17" t="n">
-        <v/>
+        <v>1011844000</v>
       </c>
       <c r="F17" t="n">
-        <v/>
+        <v>3367000000</v>
       </c>
       <c r="G17" t="n">
-        <v/>
+        <v>897000000</v>
       </c>
       <c r="H17" t="n">
-        <v/>
+        <v>278000000</v>
       </c>
       <c r="I17" t="n">
-        <v/>
+        <v>4664000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total finance expenses</t>
+          <t>Annual profit</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-42953000</v>
+        <v>302703000</v>
       </c>
       <c r="C18" t="n">
-        <v>121534000</v>
+        <v>952672000</v>
       </c>
       <c r="D18" t="n">
-        <v>38839000</v>
+        <v>757969000</v>
       </c>
       <c r="E18" t="n">
-        <v>127077000</v>
+        <v>1011844000</v>
       </c>
       <c r="F18" t="n">
-        <v>369000000</v>
+        <v>3367000000</v>
       </c>
       <c r="G18" t="n">
-        <v>279000000</v>
+        <v>897000000</v>
       </c>
       <c r="H18" t="n">
-        <v>259000000</v>
+        <v>278000000</v>
       </c>
       <c r="I18" t="n">
-        <v>35000000</v>
+        <v>4664000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Net finance</t>
+          <t>Finance income</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-219092000</v>
+        <v/>
       </c>
       <c r="C19" t="n">
-        <v>-42715000</v>
+        <v>57492000</v>
       </c>
       <c r="D19" t="n">
-        <v>5908000</v>
+        <v>22617000</v>
       </c>
       <c r="E19" t="n">
-        <v>-73714000</v>
+        <v>19219000</v>
       </c>
       <c r="F19" t="n">
-        <v>-350000000</v>
+        <v>42000000</v>
       </c>
       <c r="G19" t="n">
-        <v>-250000000</v>
+        <v>41000000</v>
       </c>
       <c r="H19" t="n">
-        <v>-243000000</v>
+        <v>31000000</v>
       </c>
       <c r="I19" t="n">
-        <v>42000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Profit before tax</t>
+          <t>Finance expenses</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>392324000</v>
+        <v/>
       </c>
       <c r="C20" t="n">
-        <v>1422298000</v>
+        <v>154067000</v>
       </c>
       <c r="D20" t="n">
-        <v>946537000</v>
+        <v/>
       </c>
       <c r="E20" t="n">
-        <v>1281234000</v>
+        <v>119376000</v>
       </c>
       <c r="F20" t="n">
-        <v>3792000000</v>
+        <v>388000000</v>
       </c>
       <c r="G20" t="n">
-        <v>1134000000</v>
+        <v>295000000</v>
       </c>
       <c r="H20" t="n">
-        <v>584000000</v>
+        <v>278000000</v>
       </c>
       <c r="I20" t="n">
-        <v>5827000000</v>
+        <v>276000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Income tax (expense) benefit</t>
+          <t>Other operating expenses</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>169802000</v>
+        <v/>
       </c>
       <c r="C21" t="n">
-        <v>462529000</v>
+        <v/>
       </c>
       <c r="D21" t="n">
-        <v>188568000</v>
+        <v/>
       </c>
       <c r="E21" t="n">
-        <v>269390000</v>
+        <v>3575874000</v>
       </c>
       <c r="F21" t="n">
-        <v>425000000</v>
+        <v>4622000000</v>
       </c>
       <c r="G21" t="n">
-        <v>237000000</v>
+        <v>4804000000</v>
       </c>
       <c r="H21" t="n">
-        <v>306000000</v>
+        <v>5121000000</v>
       </c>
       <c r="I21" t="n">
-        <v>1163000000</v>
+        <v>5536000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Profit after tax</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>222522000</v>
+        <v/>
       </c>
       <c r="C22" t="n">
-        <v>959769000</v>
+        <v/>
       </c>
       <c r="D22" t="n">
-        <v>757969000</v>
+        <v/>
       </c>
       <c r="E22" t="n">
-        <v>1011844000</v>
+        <v>7701000</v>
       </c>
       <c r="F22" t="n">
-        <v>3367000000</v>
+        <v>-19000000</v>
       </c>
       <c r="G22" t="n">
-        <v>897000000</v>
+        <v>-16000000</v>
       </c>
       <c r="H22" t="n">
-        <v>278000000</v>
+        <v>-19000000</v>
       </c>
       <c r="I22" t="n">
-        <v>4664000000</v>
+        <v>-241000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Profit for the year from discontinued operations</t>
+          <t>Share of profit (loss) from equity accounted companies</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>80181000</v>
+        <v/>
       </c>
       <c r="C23" t="n">
         <v/>
       </c>
       <c r="D23" t="n">
-        <v>-7097000</v>
+        <v/>
       </c>
       <c r="E23" t="n">
         <v/>
@@ -5355,63 +5371,63 @@
         <v/>
       </c>
       <c r="G23" t="n">
-        <v/>
+        <v>31000000</v>
       </c>
       <c r="H23" t="n">
-        <v/>
+        <v>35000000</v>
       </c>
       <c r="I23" t="n">
-        <v/>
+        <v>48000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Annual profit</t>
+          <t>Other items</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>302703000</v>
+        <v/>
       </c>
       <c r="C24" t="n">
-        <v>952672000</v>
+        <v/>
       </c>
       <c r="D24" t="n">
-        <v>757969000</v>
+        <v/>
       </c>
       <c r="E24" t="n">
-        <v>1011844000</v>
+        <v/>
       </c>
       <c r="F24" t="n">
-        <v>3367000000</v>
+        <v/>
       </c>
       <c r="G24" t="n">
-        <v>897000000</v>
+        <v>-195000000</v>
       </c>
       <c r="H24" t="n">
-        <v>278000000</v>
+        <v>130000000</v>
       </c>
       <c r="I24" t="n">
-        <v>4664000000</v>
+        <v>113000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Minority interests</t>
+          <t>Raw materials and energy for production</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>95873000</v>
+        <v/>
       </c>
       <c r="C25" t="n">
-        <v>123219000</v>
+        <v/>
       </c>
       <c r="D25" t="n">
-        <v>87553000</v>
+        <v/>
       </c>
       <c r="E25" t="n">
-        <v>101557000</v>
+        <v/>
       </c>
       <c r="F25" t="n">
         <v/>
@@ -5423,26 +5439,26 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v/>
+        <v>15861000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Annual profit after minority interests</t>
+          <t>Share of profit (loss) from equity accounted financial investments</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>267686000</v>
+        <v/>
       </c>
       <c r="C26" t="n">
-        <v>919299000</v>
+        <v/>
       </c>
       <c r="D26" t="n">
-        <v>721850000</v>
+        <v/>
       </c>
       <c r="E26" t="n">
-        <v>973162000</v>
+        <v/>
       </c>
       <c r="F26" t="n">
         <v/>
@@ -5454,533 +5470,6 @@
         <v/>
       </c>
       <c r="I26" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="27">
-      <c r="A27" t="inlineStr">
-        <is>
-          <t>Other gains/losses</t>
-        </is>
-      </c>
-      <c r="B27" t="n">
-        <v/>
-      </c>
-      <c r="C27" t="n">
-        <v>65779000</v>
-      </c>
-      <c r="D27" t="n">
-        <v/>
-      </c>
-      <c r="E27" t="n">
-        <v/>
-      </c>
-      <c r="F27" t="n">
-        <v/>
-      </c>
-      <c r="G27" t="n">
-        <v/>
-      </c>
-      <c r="H27" t="n">
-        <v/>
-      </c>
-      <c r="I27" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>Income from associates and joint ventures</t>
-        </is>
-      </c>
-      <c r="B28" t="n">
-        <v/>
-      </c>
-      <c r="C28" t="n">
-        <v>21327000</v>
-      </c>
-      <c r="D28" t="n">
-        <v/>
-      </c>
-      <c r="E28" t="n">
-        <v/>
-      </c>
-      <c r="F28" t="n">
-        <v/>
-      </c>
-      <c r="G28" t="n">
-        <v/>
-      </c>
-      <c r="H28" t="n">
-        <v/>
-      </c>
-      <c r="I28" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" t="inlineStr">
-        <is>
-          <t>Finance income</t>
-        </is>
-      </c>
-      <c r="B29" t="n">
-        <v/>
-      </c>
-      <c r="C29" t="n">
-        <v>57492000</v>
-      </c>
-      <c r="D29" t="n">
-        <v>22617000</v>
-      </c>
-      <c r="E29" t="n">
-        <v>19219000</v>
-      </c>
-      <c r="F29" t="n">
-        <v>42000000</v>
-      </c>
-      <c r="G29" t="n">
-        <v>41000000</v>
-      </c>
-      <c r="H29" t="n">
-        <v>31000000</v>
-      </c>
-      <c r="I29" t="n">
-        <v>40000000</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>Foreign exchange gain/losses</t>
-        </is>
-      </c>
-      <c r="B30" t="n">
-        <v/>
-      </c>
-      <c r="C30" t="n">
-        <v>-32533000</v>
-      </c>
-      <c r="D30" t="n">
-        <v/>
-      </c>
-      <c r="E30" t="n">
-        <v/>
-      </c>
-      <c r="F30" t="n">
-        <v/>
-      </c>
-      <c r="G30" t="n">
-        <v/>
-      </c>
-      <c r="H30" t="n">
-        <v/>
-      </c>
-      <c r="I30" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" t="inlineStr">
-        <is>
-          <t>Finance expenses</t>
-        </is>
-      </c>
-      <c r="B31" t="n">
-        <v/>
-      </c>
-      <c r="C31" t="n">
-        <v>154067000</v>
-      </c>
-      <c r="D31" t="n">
-        <v/>
-      </c>
-      <c r="E31" t="n">
-        <v>119376000</v>
-      </c>
-      <c r="F31" t="n">
-        <v>388000000</v>
-      </c>
-      <c r="G31" t="n">
-        <v>295000000</v>
-      </c>
-      <c r="H31" t="n">
-        <v>278000000</v>
-      </c>
-      <c r="I31" t="n">
-        <v>276000000</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>Profit from the year discontinued operations</t>
-        </is>
-      </c>
-      <c r="B32" t="n">
-        <v/>
-      </c>
-      <c r="C32" t="n">
-        <v>-7097000</v>
-      </c>
-      <c r="D32" t="n">
-        <v/>
-      </c>
-      <c r="E32" t="n">
-        <v/>
-      </c>
-      <c r="F32" t="n">
-        <v/>
-      </c>
-      <c r="G32" t="n">
-        <v/>
-      </c>
-      <c r="H32" t="n">
-        <v/>
-      </c>
-      <c r="I32" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>Other gains / losses</t>
-        </is>
-      </c>
-      <c r="B33" t="n">
-        <v/>
-      </c>
-      <c r="C33" t="n">
-        <v/>
-      </c>
-      <c r="D33" t="n">
-        <v>-52438000</v>
-      </c>
-      <c r="E33" t="n">
-        <v/>
-      </c>
-      <c r="F33" t="n">
-        <v/>
-      </c>
-      <c r="G33" t="n">
-        <v/>
-      </c>
-      <c r="H33" t="n">
-        <v/>
-      </c>
-      <c r="I33" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>Finance expences</t>
-        </is>
-      </c>
-      <c r="B34" t="n">
-        <v/>
-      </c>
-      <c r="C34" t="n">
-        <v/>
-      </c>
-      <c r="D34" t="n">
-        <v>88501000</v>
-      </c>
-      <c r="E34" t="n">
-        <v/>
-      </c>
-      <c r="F34" t="n">
-        <v/>
-      </c>
-      <c r="G34" t="n">
-        <v/>
-      </c>
-      <c r="H34" t="n">
-        <v/>
-      </c>
-      <c r="I34" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>Foreing exchange gains losses</t>
-        </is>
-      </c>
-      <c r="B35" t="n">
-        <v/>
-      </c>
-      <c r="C35" t="n">
-        <v/>
-      </c>
-      <c r="D35" t="n">
-        <v>-49662000</v>
-      </c>
-      <c r="E35" t="n">
-        <v/>
-      </c>
-      <c r="F35" t="n">
-        <v/>
-      </c>
-      <c r="G35" t="n">
-        <v/>
-      </c>
-      <c r="H35" t="n">
-        <v/>
-      </c>
-      <c r="I35" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>Other operating expenses</t>
-        </is>
-      </c>
-      <c r="B36" t="n">
-        <v/>
-      </c>
-      <c r="C36" t="n">
-        <v/>
-      </c>
-      <c r="D36" t="n">
-        <v/>
-      </c>
-      <c r="E36" t="n">
-        <v>3575874000</v>
-      </c>
-      <c r="F36" t="n">
-        <v>4622000000</v>
-      </c>
-      <c r="G36" t="n">
-        <v>4804000000</v>
-      </c>
-      <c r="H36" t="n">
-        <v>5121000000</v>
-      </c>
-      <c r="I36" t="n">
-        <v>5536000000</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>Foreign exchange gains (losses)</t>
-        </is>
-      </c>
-      <c r="B37" t="n">
-        <v/>
-      </c>
-      <c r="C37" t="n">
-        <v/>
-      </c>
-      <c r="D37" t="n">
-        <v/>
-      </c>
-      <c r="E37" t="n">
-        <v>7701000</v>
-      </c>
-      <c r="F37" t="n">
-        <v>-19000000</v>
-      </c>
-      <c r="G37" t="n">
-        <v>-16000000</v>
-      </c>
-      <c r="H37" t="n">
-        <v>-19000000</v>
-      </c>
-      <c r="I37" t="n">
-        <v>-241000000</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>Share of profit from equity accounted companies</t>
-        </is>
-      </c>
-      <c r="B38" t="n">
-        <v/>
-      </c>
-      <c r="C38" t="n">
-        <v/>
-      </c>
-      <c r="D38" t="n">
-        <v/>
-      </c>
-      <c r="E38" t="n">
-        <v/>
-      </c>
-      <c r="F38" t="n">
-        <v>18000000</v>
-      </c>
-      <c r="G38" t="n">
-        <v>-12000000</v>
-      </c>
-      <c r="H38" t="n">
-        <v/>
-      </c>
-      <c r="I38" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>Share of profit from equity accounted financial investments</t>
-        </is>
-      </c>
-      <c r="B39" t="n">
-        <v/>
-      </c>
-      <c r="C39" t="n">
-        <v/>
-      </c>
-      <c r="D39" t="n">
-        <v/>
-      </c>
-      <c r="E39" t="n">
-        <v/>
-      </c>
-      <c r="F39" t="n">
-        <v>-23000000</v>
-      </c>
-      <c r="G39" t="n">
-        <v/>
-      </c>
-      <c r="H39" t="n">
-        <v/>
-      </c>
-      <c r="I39" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>Share of profit (loss) from equity accounted companies</t>
-        </is>
-      </c>
-      <c r="B40" t="n">
-        <v/>
-      </c>
-      <c r="C40" t="n">
-        <v/>
-      </c>
-      <c r="D40" t="n">
-        <v/>
-      </c>
-      <c r="E40" t="n">
-        <v/>
-      </c>
-      <c r="F40" t="n">
-        <v/>
-      </c>
-      <c r="G40" t="n">
-        <v>31000000</v>
-      </c>
-      <c r="H40" t="n">
-        <v>35000000</v>
-      </c>
-      <c r="I40" t="n">
-        <v>48000000</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>Other items</t>
-        </is>
-      </c>
-      <c r="B41" t="n">
-        <v/>
-      </c>
-      <c r="C41" t="n">
-        <v/>
-      </c>
-      <c r="D41" t="n">
-        <v/>
-      </c>
-      <c r="E41" t="n">
-        <v/>
-      </c>
-      <c r="F41" t="n">
-        <v/>
-      </c>
-      <c r="G41" t="n">
-        <v>-195000000</v>
-      </c>
-      <c r="H41" t="n">
-        <v>130000000</v>
-      </c>
-      <c r="I41" t="n">
-        <v>113000000</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>Raw materials and energy for production</t>
-        </is>
-      </c>
-      <c r="B42" t="n">
-        <v/>
-      </c>
-      <c r="C42" t="n">
-        <v/>
-      </c>
-      <c r="D42" t="n">
-        <v/>
-      </c>
-      <c r="E42" t="n">
-        <v/>
-      </c>
-      <c r="F42" t="n">
-        <v/>
-      </c>
-      <c r="G42" t="n">
-        <v/>
-      </c>
-      <c r="H42" t="n">
-        <v/>
-      </c>
-      <c r="I42" t="n">
-        <v>15861000000</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>Share of profit (loss) from equity accounted financial investments</t>
-        </is>
-      </c>
-      <c r="B43" t="n">
-        <v/>
-      </c>
-      <c r="C43" t="n">
-        <v/>
-      </c>
-      <c r="D43" t="n">
-        <v/>
-      </c>
-      <c r="E43" t="n">
-        <v/>
-      </c>
-      <c r="F43" t="n">
-        <v/>
-      </c>
-      <c r="G43" t="n">
-        <v/>
-      </c>
-      <c r="H43" t="n">
-        <v/>
-      </c>
-      <c r="I43" t="n">
         <v>37000000</v>
       </c>
     </row>
@@ -5995,7 +5484,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I89"/>
+  <dimension ref="A1:I49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6004,1341 +5493,1357 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" t="n">
-        <v>2014</v>
-      </c>
-      <c r="C1" t="n">
-        <v>2015</v>
-      </c>
-      <c r="D1" t="n">
-        <v>2016</v>
-      </c>
-      <c r="E1" t="n">
-        <v>2017</v>
-      </c>
-      <c r="F1" t="n">
-        <v>2018</v>
-      </c>
-      <c r="G1" t="n">
-        <v>2019</v>
-      </c>
-      <c r="H1" t="n">
-        <v>2020</v>
-      </c>
-      <c r="I1" t="n">
-        <v>2021</v>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Research and development</t>
+          <t>Deferred tax asset</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>9123000</v>
+        <v>320882000</v>
       </c>
       <c r="C2" t="n">
-        <v/>
+        <v>323969000</v>
       </c>
       <c r="D2" t="n">
-        <v/>
+        <v>67348000</v>
       </c>
       <c r="E2" t="n">
-        <v/>
+        <v>89584000</v>
       </c>
       <c r="F2" t="n">
-        <v/>
+        <v>60000000</v>
       </c>
       <c r="G2" t="n">
-        <v/>
+        <v>66000000</v>
       </c>
       <c r="H2" t="n">
-        <v/>
+        <v>96000000</v>
       </c>
       <c r="I2" t="n">
-        <v/>
+        <v>48000000</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Concessions, patents, licenses, trademarks and similar rights</t>
+          <t>Goodwill</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>160884000</v>
+        <v>160734000</v>
       </c>
       <c r="C3" t="n">
-        <v/>
+        <v>244088000</v>
       </c>
       <c r="D3" t="n">
-        <v/>
+        <v>342645000</v>
       </c>
       <c r="E3" t="n">
-        <v/>
+        <v>326323000</v>
       </c>
       <c r="F3" t="n">
-        <v/>
+        <v>342000000</v>
       </c>
       <c r="G3" t="n">
-        <v/>
+        <v>466000000</v>
       </c>
       <c r="H3" t="n">
-        <v/>
+        <v>919000000</v>
       </c>
       <c r="I3" t="n">
-        <v/>
+        <v>941000000</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Deferred tax asset</t>
+          <t>Total intangible assets</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>320882000</v>
+        <v>642500000</v>
       </c>
       <c r="C4" t="n">
-        <v>323969000</v>
+        <v>1211550000</v>
       </c>
       <c r="D4" t="n">
-        <v>67348000</v>
+        <v>1103006000</v>
       </c>
       <c r="E4" t="n">
-        <v>89584000</v>
+        <v>1135257000</v>
       </c>
       <c r="F4" t="n">
-        <v>60000000</v>
+        <v>1324000000</v>
       </c>
       <c r="G4" t="n">
-        <v>66000000</v>
+        <v>1309000000</v>
       </c>
       <c r="H4" t="n">
-        <v>96000000</v>
+        <v>2334000000</v>
       </c>
       <c r="I4" t="n">
-        <v>48000000</v>
+        <v>2591000000</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Goodwill</t>
+          <t>Tangible fixed assets</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>160734000</v>
+        <v>595944000</v>
       </c>
       <c r="C5" t="n">
-        <v>244088000</v>
+        <v>1208675000</v>
       </c>
       <c r="D5" t="n">
-        <v>342645000</v>
+        <v>1211550000</v>
       </c>
       <c r="E5" t="n">
-        <v>326323000</v>
+        <v>1103006000</v>
       </c>
       <c r="F5" t="n">
-        <v>342000000</v>
+        <v>1327000000</v>
       </c>
       <c r="G5" t="n">
-        <v>466000000</v>
+        <v>1324000000</v>
       </c>
       <c r="H5" t="n">
-        <v>919000000</v>
+        <v>1309000000</v>
       </c>
       <c r="I5" t="n">
-        <v>941000000</v>
+        <v>2334000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total intangible assets</t>
+          <t>Total tangible fixed assets</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>642500000</v>
+        <v>3294636000</v>
       </c>
       <c r="C6" t="n">
-        <v>1211550000</v>
+        <v>5602208000</v>
       </c>
       <c r="D6" t="n">
-        <v>1103006000</v>
+        <v>5909087000</v>
       </c>
       <c r="E6" t="n">
-        <v>1135257000</v>
+        <v>6568934000</v>
       </c>
       <c r="F6" t="n">
-        <v>1324000000</v>
+        <v>12445000000</v>
       </c>
       <c r="G6" t="n">
-        <v>1309000000</v>
+        <v>13782000000</v>
       </c>
       <c r="H6" t="n">
-        <v>2334000000</v>
+        <v>15006000000</v>
       </c>
       <c r="I6" t="n">
-        <v>2591000000</v>
+        <v>16739000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Tangible fixed assets</t>
+          <t>Financial fixed assets</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>595944000</v>
+        <v>3100763000</v>
       </c>
       <c r="C7" t="n">
-        <v>1208675000</v>
+        <v>5183162000</v>
       </c>
       <c r="D7" t="n">
-        <v>1211550000</v>
+        <v>5602208000</v>
       </c>
       <c r="E7" t="n">
-        <v>1103006000</v>
+        <v>5909087000</v>
       </c>
       <c r="F7" t="n">
-        <v>1327000000</v>
+        <v>11950000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1324000000</v>
+        <v>12445000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1309000000</v>
+        <v>13782000000</v>
       </c>
       <c r="I7" t="n">
-        <v>2334000000</v>
+        <v>15006000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Land, buildings and other fixed assets</t>
+          <t>Total financial fixed assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>911210000</v>
+        <v>2666156000</v>
       </c>
       <c r="C8" t="n">
-        <v>1441970000</v>
+        <v>421228000</v>
       </c>
       <c r="D8" t="n">
-        <v>1545154000</v>
+        <v>699352000</v>
       </c>
       <c r="E8" t="n">
-        <v>1569914000</v>
+        <v>686027000</v>
       </c>
       <c r="F8" t="n">
-        <v/>
+        <v>705000000</v>
       </c>
       <c r="G8" t="n">
-        <v/>
+        <v>601000000</v>
       </c>
       <c r="H8" t="n">
-        <v/>
+        <v>675000000</v>
       </c>
       <c r="I8" t="n">
-        <v/>
+        <v>1023000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Maskiner og anlegg</t>
+          <t>Total fixed assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2040947000</v>
+        <v>6603292000</v>
       </c>
       <c r="C9" t="n">
-        <v>3403958000</v>
+        <v>7234986000</v>
       </c>
       <c r="D9" t="n">
-        <v>3754746000</v>
+        <v>7711445000</v>
       </c>
       <c r="E9" t="n">
-        <v>3775761000</v>
+        <v>8390218000</v>
       </c>
       <c r="F9" t="n">
-        <v/>
+        <v>14474000000</v>
       </c>
       <c r="G9" t="n">
-        <v/>
+        <v>15692000000</v>
       </c>
       <c r="H9" t="n">
-        <v/>
+        <v>18015000000</v>
       </c>
       <c r="I9" t="n">
-        <v/>
+        <v>20353000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Equipment</t>
+          <t>Current assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>91467000</v>
+        <v>3931239000</v>
       </c>
       <c r="C10" t="n">
-        <v/>
+        <v>9163870000</v>
       </c>
       <c r="D10" t="n">
-        <v/>
+        <v>7234986000</v>
       </c>
       <c r="E10" t="n">
-        <v>178690000</v>
+        <v>7711445000</v>
       </c>
       <c r="F10" t="n">
-        <v/>
+        <v>13995000000</v>
       </c>
       <c r="G10" t="n">
-        <v/>
+        <v>14474000000</v>
       </c>
       <c r="H10" t="n">
-        <v/>
+        <v>15692000000</v>
       </c>
       <c r="I10" t="n">
-        <v/>
+        <v>18014000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Construction in progress</t>
+          <t>Inventories</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>251012000</v>
+        <v>2086604000</v>
       </c>
       <c r="C11" t="n">
-        <v>595138000</v>
+        <v>3302196000</v>
       </c>
       <c r="D11" t="n">
-        <v/>
+        <v>3339415000</v>
       </c>
       <c r="E11" t="n">
-        <v>1044569000</v>
+        <v>3561007000</v>
       </c>
       <c r="F11" t="n">
-        <v/>
+        <v>5467000000</v>
       </c>
       <c r="G11" t="n">
-        <v/>
+        <v>5224000000</v>
       </c>
       <c r="H11" t="n">
-        <v/>
+        <v>5241000000</v>
       </c>
       <c r="I11" t="n">
-        <v/>
+        <v>7716000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total tangible fixed assets</t>
+          <t>Total inventories</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>3294636000</v>
+        <v>2086604000</v>
       </c>
       <c r="C12" t="n">
-        <v>5602208000</v>
+        <v>3302196000</v>
       </c>
       <c r="D12" t="n">
-        <v>5909087000</v>
+        <v>3339415000</v>
       </c>
       <c r="E12" t="n">
-        <v>6568934000</v>
+        <v>3561007000</v>
       </c>
       <c r="F12" t="n">
-        <v>12445000000</v>
+        <v>5467000000</v>
       </c>
       <c r="G12" t="n">
-        <v>13782000000</v>
+        <v>5224000000</v>
       </c>
       <c r="H12" t="n">
-        <v>15006000000</v>
+        <v>5241000000</v>
       </c>
       <c r="I12" t="n">
-        <v>16739000000</v>
+        <v>7716000000</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Financial fixed assets</t>
+          <t>Receivables</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>3100763000</v>
+        <v>1715245000</v>
       </c>
       <c r="C13" t="n">
-        <v>5183162000</v>
+        <v>2896478000</v>
       </c>
       <c r="D13" t="n">
-        <v>5602208000</v>
+        <v>3302196000</v>
       </c>
       <c r="E13" t="n">
-        <v>5909087000</v>
+        <v>3339415000</v>
       </c>
       <c r="F13" t="n">
-        <v>11950000000</v>
+        <v>4099000000</v>
       </c>
       <c r="G13" t="n">
-        <v>12445000000</v>
+        <v>5467000000</v>
       </c>
       <c r="H13" t="n">
-        <v>13782000000</v>
+        <v>5224000000</v>
       </c>
       <c r="I13" t="n">
-        <v>15006000000</v>
+        <v>5241000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Investeringer i tilknyttet selskap</t>
+          <t>Trade receivables</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>960398000</v>
+        <v>1275377000</v>
       </c>
       <c r="C14" t="n">
-        <v>67476000</v>
+        <v>1864010000</v>
       </c>
       <c r="D14" t="n">
-        <v>108978000</v>
+        <v>1870770000</v>
       </c>
       <c r="E14" t="n">
-        <v>97871000</v>
+        <v>2264479000</v>
       </c>
       <c r="F14" t="n">
-        <v>134000000</v>
+        <v>2391000000</v>
       </c>
       <c r="G14" t="n">
-        <v>129000000</v>
+        <v>2269000000</v>
       </c>
       <c r="H14" t="n">
-        <v/>
+        <v>2796000000</v>
       </c>
       <c r="I14" t="n">
-        <v/>
+        <v>4297000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Investeringer i aksjer og andeler</t>
+          <t>Total receivables</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>53741000</v>
+        <v>1788642000</v>
       </c>
       <c r="C15" t="n">
-        <v>96046000</v>
+        <v>2619747000</v>
       </c>
       <c r="D15" t="n">
-        <v>100516000</v>
+        <v>2475426000</v>
       </c>
       <c r="E15" t="n">
-        <v>111967000</v>
+        <v>2870074000</v>
       </c>
       <c r="F15" t="n">
-        <v/>
+        <v>3227000000</v>
       </c>
       <c r="G15" t="n">
-        <v/>
+        <v>3283000000</v>
       </c>
       <c r="H15" t="n">
-        <v/>
+        <v>4478000000</v>
       </c>
       <c r="I15" t="n">
-        <v/>
+        <v>6132000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Derivates</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>241155000</v>
+        <v>546114000</v>
       </c>
       <c r="C16" t="n">
-        <v>615208000</v>
+        <v>1305592000</v>
       </c>
       <c r="D16" t="n">
-        <v>128001000</v>
+        <v>1230668000</v>
       </c>
       <c r="E16" t="n">
-        <v>246683000</v>
+        <v>1493279000</v>
       </c>
       <c r="F16" t="n">
-        <v/>
+        <v>7081000000</v>
       </c>
       <c r="G16" t="n">
-        <v/>
+        <v>4496000000</v>
       </c>
       <c r="H16" t="n">
-        <v/>
+        <v>3154000000</v>
       </c>
       <c r="I16" t="n">
-        <v/>
+        <v>7040000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Other non-current assets</t>
+          <t>Total cash and cash equivalents</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1582274000</v>
+        <v>546114000</v>
       </c>
       <c r="C17" t="n">
-        <v>217226000</v>
+        <v>1305592000</v>
       </c>
       <c r="D17" t="n">
-        <v>370697000</v>
+        <v>1230668000</v>
       </c>
       <c r="E17" t="n">
-        <v>324615000</v>
+        <v>1493279000</v>
       </c>
       <c r="F17" t="n">
-        <v>440000000</v>
+        <v>7658000000</v>
       </c>
       <c r="G17" t="n">
-        <v/>
+        <v>4767000000</v>
       </c>
       <c r="H17" t="n">
-        <v/>
+        <v>3154000000</v>
       </c>
       <c r="I17" t="n">
-        <v/>
+        <v>7649000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total financial fixed assets</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>2666156000</v>
+        <v>4421360000</v>
       </c>
       <c r="C18" t="n">
-        <v>421228000</v>
+        <v>7241867000</v>
       </c>
       <c r="D18" t="n">
-        <v>699352000</v>
+        <v>7101897000</v>
       </c>
       <c r="E18" t="n">
-        <v>686027000</v>
+        <v>7957717000</v>
       </c>
       <c r="F18" t="n">
-        <v>705000000</v>
+        <v>16655000000</v>
       </c>
       <c r="G18" t="n">
-        <v>601000000</v>
+        <v>13312000000</v>
       </c>
       <c r="H18" t="n">
-        <v>675000000</v>
+        <v>12873000000</v>
       </c>
       <c r="I18" t="n">
-        <v>1023000000</v>
+        <v>21497000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total fixed assets</t>
+          <t>TOTAL ASSETS</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>6603292000</v>
+        <v>11024652000</v>
       </c>
       <c r="C19" t="n">
-        <v>7234986000</v>
+        <v>14476853000</v>
       </c>
       <c r="D19" t="n">
-        <v>7711445000</v>
+        <v>14813342000</v>
       </c>
       <c r="E19" t="n">
-        <v>8390218000</v>
+        <v>16347935000</v>
       </c>
       <c r="F19" t="n">
-        <v>14474000000</v>
+        <v>31129000000</v>
       </c>
       <c r="G19" t="n">
-        <v>15692000000</v>
+        <v>29004000000</v>
       </c>
       <c r="H19" t="n">
-        <v>18015000000</v>
+        <v>30888000000</v>
       </c>
       <c r="I19" t="n">
-        <v>20353000000</v>
+        <v>41850000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Current assets</t>
+          <t>BALANCE - EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>3931239000</v>
+        <v>11668099000</v>
       </c>
       <c r="C20" t="n">
-        <v>9163870000</v>
+        <v>15453419000</v>
       </c>
       <c r="D20" t="n">
-        <v>7234986000</v>
+        <v>14476853000</v>
       </c>
       <c r="E20" t="n">
-        <v>7711445000</v>
+        <v>14813342000</v>
       </c>
       <c r="F20" t="n">
-        <v>13995000000</v>
+        <v>25507000000</v>
       </c>
       <c r="G20" t="n">
-        <v>14474000000</v>
+        <v>31129000000</v>
       </c>
       <c r="H20" t="n">
-        <v>15692000000</v>
+        <v>29004000000</v>
       </c>
       <c r="I20" t="n">
-        <v>18014000000</v>
+        <v>30888000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Total contributed equity</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>2086604000</v>
+        <v>6055203000</v>
       </c>
       <c r="C21" t="n">
-        <v>3302196000</v>
+        <v>3088203000</v>
       </c>
       <c r="D21" t="n">
-        <v>3339415000</v>
+        <v>3088203000</v>
       </c>
       <c r="E21" t="n">
-        <v>3561007000</v>
+        <v>2918203000</v>
       </c>
       <c r="F21" t="n">
-        <v>5467000000</v>
+        <v>8102000000</v>
       </c>
       <c r="G21" t="n">
-        <v>5224000000</v>
+        <v>6616000000</v>
       </c>
       <c r="H21" t="n">
-        <v>5241000000</v>
+        <v>6296000000</v>
       </c>
       <c r="I21" t="n">
-        <v>7716000000</v>
+        <v>8097000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total inventories</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>2086604000</v>
+        <v>5503413000</v>
       </c>
       <c r="C22" t="n">
-        <v>3302196000</v>
+        <v>6055203000</v>
       </c>
       <c r="D22" t="n">
-        <v>3339415000</v>
+        <v>3088203000</v>
       </c>
       <c r="E22" t="n">
-        <v>3561007000</v>
+        <v>3088203000</v>
       </c>
       <c r="F22" t="n">
-        <v>5467000000</v>
+        <v>2918000000</v>
       </c>
       <c r="G22" t="n">
-        <v>5224000000</v>
+        <v>8102000000</v>
       </c>
       <c r="H22" t="n">
-        <v>5241000000</v>
+        <v>6616000000</v>
       </c>
       <c r="I22" t="n">
-        <v>7716000000</v>
+        <v>11692000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Total retained earnings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1715245000</v>
+        <v>2702240000</v>
       </c>
       <c r="C23" t="n">
-        <v>2896478000</v>
+        <v>3107336000</v>
       </c>
       <c r="D23" t="n">
-        <v>3302196000</v>
+        <v>4370839000</v>
       </c>
       <c r="E23" t="n">
-        <v>3339415000</v>
+        <v>5313102000</v>
       </c>
       <c r="F23" t="n">
-        <v>4099000000</v>
+        <v>5620000000</v>
       </c>
       <c r="G23" t="n">
-        <v>5467000000</v>
+        <v>6336000000</v>
       </c>
       <c r="H23" t="n">
-        <v>5224000000</v>
+        <v>6339000000</v>
       </c>
       <c r="I23" t="n">
-        <v>5241000000</v>
+        <v>11778000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Trade receivables</t>
+          <t>Total equity</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>1275377000</v>
+        <v>8757443000</v>
       </c>
       <c r="C24" t="n">
-        <v>1864010000</v>
+        <v>6318758000</v>
       </c>
       <c r="D24" t="n">
-        <v>1870770000</v>
+        <v>7459042000</v>
       </c>
       <c r="E24" t="n">
-        <v>2264479000</v>
+        <v>8332862000</v>
       </c>
       <c r="F24" t="n">
-        <v>2391000000</v>
+        <v>13722000000</v>
       </c>
       <c r="G24" t="n">
-        <v>2269000000</v>
+        <v>12952000000</v>
       </c>
       <c r="H24" t="n">
-        <v>2796000000</v>
+        <v>12635000000</v>
       </c>
       <c r="I24" t="n">
-        <v>4297000000</v>
+        <v>19875000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Other current assets</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>506421000</v>
+        <v>7697399000</v>
       </c>
       <c r="C25" t="n">
-        <v/>
+        <v>5675417000</v>
       </c>
       <c r="D25" t="n">
-        <v/>
+        <v>6167047000</v>
       </c>
       <c r="E25" t="n">
-        <v>605595000</v>
+        <v>7459042000</v>
       </c>
       <c r="F25" t="n">
-        <v>836000000</v>
+        <v>8565000000</v>
       </c>
       <c r="G25" t="n">
-        <v/>
+        <v>13722000000</v>
       </c>
       <c r="H25" t="n">
-        <v/>
+        <v>12952000000</v>
       </c>
       <c r="I25" t="n">
-        <v/>
+        <v>12636000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Total receivables</t>
+          <t>Deferred tax</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1788642000</v>
+        <v>56595000</v>
       </c>
       <c r="C26" t="n">
-        <v>2619747000</v>
+        <v>175046000</v>
       </c>
       <c r="D26" t="n">
-        <v>2475426000</v>
+        <v>114182000</v>
       </c>
       <c r="E26" t="n">
-        <v>2870074000</v>
+        <v>104587000</v>
       </c>
       <c r="F26" t="n">
-        <v>3227000000</v>
+        <v>207000000</v>
       </c>
       <c r="G26" t="n">
-        <v>3283000000</v>
+        <v>243000000</v>
       </c>
       <c r="H26" t="n">
-        <v>4478000000</v>
+        <v>336000000</v>
       </c>
       <c r="I26" t="n">
-        <v>6132000000</v>
+        <v>505000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Assets held for sale</t>
+          <t>Total provisions for liabilities</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>4041698000</v>
+        <v>671288000</v>
       </c>
       <c r="C27" t="n">
-        <v/>
+        <v>1554536000</v>
       </c>
       <c r="D27" t="n">
-        <v/>
+        <v>1564361000</v>
       </c>
       <c r="E27" t="n">
-        <v/>
+        <v>1318208000</v>
       </c>
       <c r="F27" t="n">
-        <v/>
+        <v>1452000000</v>
       </c>
       <c r="G27" t="n">
-        <v/>
+        <v>1196000000</v>
       </c>
       <c r="H27" t="n">
-        <v/>
+        <v>336000000</v>
       </c>
       <c r="I27" t="n">
-        <v/>
+        <v>1316000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Total investments</t>
+          <t>Other long-term debt</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>4041698000</v>
+        <v>14520000</v>
       </c>
       <c r="C28" t="n">
-        <v>14332000</v>
+        <v>3051916000</v>
       </c>
       <c r="D28" t="n">
-        <v>56388000</v>
+        <v>2834859000</v>
       </c>
       <c r="E28" t="n">
-        <v>33357000</v>
+        <v>1564361000</v>
       </c>
       <c r="F28" t="n">
-        <v>303000000</v>
+        <v>1355000000</v>
       </c>
       <c r="G28" t="n">
-        <v>38000000</v>
+        <v>1452000000</v>
       </c>
       <c r="H28" t="n">
-        <v/>
+        <v>243000000</v>
       </c>
       <c r="I28" t="n">
-        <v/>
+        <v>1593000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Total other long-term debt</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>546114000</v>
+        <v>14520000</v>
       </c>
       <c r="C29" t="n">
-        <v>1305592000</v>
+        <v>3051916000</v>
       </c>
       <c r="D29" t="n">
-        <v>1230668000</v>
+        <v>2834859000</v>
       </c>
       <c r="E29" t="n">
-        <v>1493279000</v>
+        <v>2681975000</v>
       </c>
       <c r="F29" t="n">
-        <v>7081000000</v>
+        <v>7131000000</v>
       </c>
       <c r="G29" t="n">
-        <v>4496000000</v>
+        <v>8340000000</v>
       </c>
       <c r="H29" t="n">
-        <v>3154000000</v>
+        <v>8446000000</v>
       </c>
       <c r="I29" t="n">
-        <v>7040000000</v>
+        <v>8409000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total cash and cash equivalents</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>546114000</v>
+        <v>685808000</v>
       </c>
       <c r="C30" t="n">
-        <v>1305592000</v>
+        <v>4606452000</v>
       </c>
       <c r="D30" t="n">
-        <v>1230668000</v>
+        <v>4399220000</v>
       </c>
       <c r="E30" t="n">
-        <v>1493279000</v>
+        <v>4000183000</v>
       </c>
       <c r="F30" t="n">
-        <v>7658000000</v>
+        <v>8583000000</v>
       </c>
       <c r="G30" t="n">
-        <v>4767000000</v>
+        <v>9536000000</v>
       </c>
       <c r="H30" t="n">
-        <v>3154000000</v>
+        <v>8782000000</v>
       </c>
       <c r="I30" t="n">
-        <v>7649000000</v>
+        <v>9725000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Short-term debt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>4421360000</v>
+        <v>498054000</v>
       </c>
       <c r="C31" t="n">
-        <v>7241867000</v>
+        <v>2588809000</v>
       </c>
       <c r="D31" t="n">
-        <v>7101897000</v>
+        <v/>
       </c>
       <c r="E31" t="n">
-        <v>7957717000</v>
+        <v>4399220000</v>
       </c>
       <c r="F31" t="n">
-        <v>16655000000</v>
+        <v>5940000000</v>
       </c>
       <c r="G31" t="n">
-        <v>13312000000</v>
+        <v>8583000000</v>
       </c>
       <c r="H31" t="n">
-        <v>12873000000</v>
+        <v>9536000000</v>
       </c>
       <c r="I31" t="n">
-        <v>21497000000</v>
+        <v>8782000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>TOTAL ASSETS</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>11024652000</v>
+        <v>831317000</v>
       </c>
       <c r="C32" t="n">
-        <v>14476853000</v>
+        <v>1448578000</v>
       </c>
       <c r="D32" t="n">
-        <v>14813342000</v>
+        <v>1527587000</v>
       </c>
       <c r="E32" t="n">
-        <v>16347935000</v>
+        <v>1836888000</v>
       </c>
       <c r="F32" t="n">
-        <v>31129000000</v>
+        <v>2731000000</v>
       </c>
       <c r="G32" t="n">
-        <v>29004000000</v>
+        <v>2767000000</v>
       </c>
       <c r="H32" t="n">
-        <v>30888000000</v>
+        <v>3157000000</v>
       </c>
       <c r="I32" t="n">
-        <v>41850000000</v>
+        <v>4614000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>BALANCE - EQUITY AND LIABILITIES</t>
+          <t>Total short-term debt</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>11668099000</v>
+        <v>1581401000</v>
       </c>
       <c r="C33" t="n">
-        <v>15453419000</v>
+        <v>3551643000</v>
       </c>
       <c r="D33" t="n">
-        <v>14476853000</v>
+        <v>2955080000</v>
       </c>
       <c r="E33" t="n">
-        <v>14813342000</v>
+        <v>4014890000</v>
       </c>
       <c r="F33" t="n">
-        <v>25507000000</v>
+        <v>8824000000</v>
       </c>
       <c r="G33" t="n">
-        <v>31129000000</v>
+        <v>6516000000</v>
       </c>
       <c r="H33" t="n">
-        <v>29004000000</v>
+        <v>9471000000</v>
       </c>
       <c r="I33" t="n">
-        <v>30888000000</v>
+        <v>12250000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Share capital</t>
+          <t>Total debt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2010000000</v>
+        <v>2267209000</v>
       </c>
       <c r="C34" t="n">
-        <v>2010000000</v>
+        <v>8158095000</v>
       </c>
       <c r="D34" t="n">
-        <v>2010000000</v>
+        <v>7354300000</v>
       </c>
       <c r="E34" t="n">
-        <v>2010000000</v>
+        <v>8015073000</v>
       </c>
       <c r="F34" t="n">
-        <v>2907000000</v>
+        <v>17407000000</v>
       </c>
       <c r="G34" t="n">
-        <v>2907000000</v>
+        <v>16052000000</v>
       </c>
       <c r="H34" t="n">
-        <v>2907000000</v>
+        <v>18253000000</v>
       </c>
       <c r="I34" t="n">
-        <v/>
+        <v>21975000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Overkurs</t>
+          <t>TOTAL EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>4045203000</v>
+        <v>11024652000</v>
       </c>
       <c r="C35" t="n">
-        <v>1078203000</v>
+        <v>14476853000</v>
       </c>
       <c r="D35" t="n">
-        <v>1078203000</v>
+        <v>14813342000</v>
       </c>
       <c r="E35" t="n">
-        <v>908203000</v>
+        <v>16347935000</v>
       </c>
       <c r="F35" t="n">
-        <v>5195000000</v>
+        <v>31129000000</v>
       </c>
       <c r="G35" t="n">
-        <v>3709000000</v>
+        <v>29004000000</v>
       </c>
       <c r="H35" t="n">
-        <v/>
+        <v>30888000000</v>
       </c>
       <c r="I35" t="n">
-        <v/>
+        <v>41850000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Total contributed equity</t>
+          <t>Property, plant and equipment</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>6055203000</v>
+        <v/>
       </c>
       <c r="C36" t="n">
-        <v>3088203000</v>
+        <v/>
       </c>
       <c r="D36" t="n">
-        <v>3088203000</v>
+        <v/>
       </c>
       <c r="E36" t="n">
-        <v>2918203000</v>
+        <v/>
       </c>
       <c r="F36" t="n">
-        <v>8102000000</v>
+        <v>12445000000</v>
       </c>
       <c r="G36" t="n">
-        <v>6616000000</v>
+        <v>13202000000</v>
       </c>
       <c r="H36" t="n">
-        <v>6296000000</v>
+        <v>14131000000</v>
       </c>
       <c r="I36" t="n">
-        <v>8097000000</v>
+        <v>15722000000</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Derivatives</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>5503413000</v>
+        <v/>
       </c>
       <c r="C37" t="n">
-        <v>6055203000</v>
+        <v/>
       </c>
       <c r="D37" t="n">
-        <v>3088203000</v>
+        <v/>
       </c>
       <c r="E37" t="n">
-        <v>3088203000</v>
+        <v/>
       </c>
       <c r="F37" t="n">
-        <v>2918000000</v>
+        <v>79000000</v>
       </c>
       <c r="G37" t="n">
-        <v>8102000000</v>
+        <v>37000000</v>
       </c>
       <c r="H37" t="n">
-        <v>6616000000</v>
+        <v>101000000</v>
       </c>
       <c r="I37" t="n">
-        <v>11692000000</v>
+        <v>23000000</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Other equity</t>
+          <t>Restricted deposits</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>2606367000</v>
+        <v/>
       </c>
       <c r="C38" t="n">
-        <v>3107336000</v>
+        <v/>
       </c>
       <c r="D38" t="n">
-        <v>4283286000</v>
+        <v/>
       </c>
       <c r="E38" t="n">
-        <v>5313102000</v>
+        <v/>
       </c>
       <c r="F38" t="n">
-        <v>5519000000</v>
+        <v>577000000</v>
       </c>
       <c r="G38" t="n">
-        <v>6240000000</v>
+        <v>271000000</v>
       </c>
       <c r="H38" t="n">
-        <v>6231000000</v>
+        <v>322000000</v>
       </c>
       <c r="I38" t="n">
-        <v/>
+        <v>609000000</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Total retained earnings</t>
+          <t>Minority interests</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2702240000</v>
+        <v/>
       </c>
       <c r="C39" t="n">
-        <v>3107336000</v>
+        <v/>
       </c>
       <c r="D39" t="n">
-        <v>4370839000</v>
+        <v/>
       </c>
       <c r="E39" t="n">
-        <v>5313102000</v>
+        <v/>
       </c>
       <c r="F39" t="n">
-        <v>5620000000</v>
+        <v>101000000</v>
       </c>
       <c r="G39" t="n">
-        <v>6336000000</v>
+        <v>96000000</v>
       </c>
       <c r="H39" t="n">
-        <v>6339000000</v>
+        <v>108000000</v>
       </c>
       <c r="I39" t="n">
-        <v>11778000000</v>
+        <v>86000000</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Total equity</t>
+          <t>Employee benefit obligations</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>8757443000</v>
+        <v/>
       </c>
       <c r="C40" t="n">
-        <v>6318758000</v>
+        <v/>
       </c>
       <c r="D40" t="n">
-        <v>7459042000</v>
+        <v/>
       </c>
       <c r="E40" t="n">
-        <v>8332862000</v>
+        <v/>
       </c>
       <c r="F40" t="n">
-        <v>13722000000</v>
+        <v>671000000</v>
       </c>
       <c r="G40" t="n">
-        <v>12952000000</v>
+        <v>640000000</v>
       </c>
       <c r="H40" t="n">
-        <v>12635000000</v>
+        <v>740000000</v>
       </c>
       <c r="I40" t="n">
-        <v>19875000000</v>
+        <v>976000000</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>Bills payable</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>7697399000</v>
+        <v/>
       </c>
       <c r="C41" t="n">
-        <v>5675417000</v>
+        <v/>
       </c>
       <c r="D41" t="n">
-        <v>6167047000</v>
+        <v/>
       </c>
       <c r="E41" t="n">
-        <v>7459042000</v>
+        <v/>
       </c>
       <c r="F41" t="n">
-        <v>8565000000</v>
+        <v>1740000000</v>
       </c>
       <c r="G41" t="n">
-        <v>13722000000</v>
+        <v>887000000</v>
       </c>
       <c r="H41" t="n">
-        <v>12952000000</v>
+        <v>1053000000</v>
       </c>
       <c r="I41" t="n">
-        <v>12636000000</v>
+        <v>2096000000</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Pension obligations</t>
+          <t>Other assets</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>204450000</v>
+        <v/>
       </c>
       <c r="C42" t="n">
-        <v>393735000</v>
+        <v/>
       </c>
       <c r="D42" t="n">
-        <v>425488000</v>
+        <v/>
       </c>
       <c r="E42" t="n">
-        <v>444807000</v>
+        <v/>
       </c>
       <c r="F42" t="n">
         <v/>
       </c>
       <c r="G42" t="n">
-        <v/>
+        <v>406000000</v>
       </c>
       <c r="H42" t="n">
-        <v/>
+        <v>1212000000</v>
       </c>
       <c r="I42" t="n">
-        <v/>
+        <v>1552000000</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Deferred tax</t>
+          <t>Right-of-use assets</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>56595000</v>
+        <v/>
       </c>
       <c r="C43" t="n">
-        <v>175046000</v>
+        <v/>
       </c>
       <c r="D43" t="n">
-        <v>114182000</v>
+        <v/>
       </c>
       <c r="E43" t="n">
-        <v>104587000</v>
+        <v/>
       </c>
       <c r="F43" t="n">
-        <v>207000000</v>
+        <v/>
       </c>
       <c r="G43" t="n">
-        <v>243000000</v>
+        <v/>
       </c>
       <c r="H43" t="n">
-        <v>336000000</v>
+        <v>875000000</v>
       </c>
       <c r="I43" t="n">
-        <v>505000000</v>
+        <v>1017000000</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Provisions and other non-current</t>
+          <t>Investments in equity accounted companies</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>157838000</v>
+        <v/>
       </c>
       <c r="C44" t="n">
         <v/>
@@ -7356,1404 +6861,164 @@
         <v/>
       </c>
       <c r="H44" t="n">
-        <v/>
+        <v>183000000</v>
       </c>
       <c r="I44" t="n">
-        <v/>
+        <v>241000000</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Total provisions for liabilities</t>
+          <t>Provisions and other liabilities</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>671288000</v>
+        <v/>
       </c>
       <c r="C45" t="n">
-        <v>1554536000</v>
+        <v/>
       </c>
       <c r="D45" t="n">
-        <v>1564361000</v>
+        <v/>
       </c>
       <c r="E45" t="n">
-        <v>1318208000</v>
+        <v/>
       </c>
       <c r="F45" t="n">
-        <v>1452000000</v>
+        <v/>
       </c>
       <c r="G45" t="n">
-        <v>1196000000</v>
+        <v/>
       </c>
       <c r="H45" t="n">
-        <v>336000000</v>
+        <v>1063000000</v>
       </c>
       <c r="I45" t="n">
-        <v>1316000000</v>
+        <v>1655000000</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Other long-term debt</t>
+          <t>Other intagible assets</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>14520000</v>
+        <v/>
       </c>
       <c r="C46" t="n">
-        <v>3051916000</v>
+        <v/>
       </c>
       <c r="D46" t="n">
-        <v>2834859000</v>
+        <v/>
       </c>
       <c r="E46" t="n">
-        <v>1564361000</v>
+        <v/>
       </c>
       <c r="F46" t="n">
-        <v>1355000000</v>
+        <v/>
       </c>
       <c r="G46" t="n">
-        <v>1452000000</v>
+        <v/>
       </c>
       <c r="H46" t="n">
-        <v>243000000</v>
+        <v/>
       </c>
       <c r="I46" t="n">
-        <v>1593000000</v>
+        <v>1602000000</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Total other long-term debt</t>
+          <t>Paid-in capital</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>14520000</v>
+        <v/>
       </c>
       <c r="C47" t="n">
-        <v>3051916000</v>
+        <v/>
       </c>
       <c r="D47" t="n">
-        <v>2834859000</v>
+        <v/>
       </c>
       <c r="E47" t="n">
-        <v>2681975000</v>
+        <v/>
       </c>
       <c r="F47" t="n">
-        <v>7131000000</v>
+        <v/>
       </c>
       <c r="G47" t="n">
-        <v>8340000000</v>
+        <v/>
       </c>
       <c r="H47" t="n">
-        <v>8446000000</v>
+        <v/>
       </c>
       <c r="I47" t="n">
-        <v>8409000000</v>
+        <v>8097000000</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Interest-bearing liabilities</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>685808000</v>
+        <v/>
       </c>
       <c r="C48" t="n">
-        <v>4606452000</v>
+        <v/>
       </c>
       <c r="D48" t="n">
-        <v>4399220000</v>
+        <v/>
       </c>
       <c r="E48" t="n">
-        <v>4000183000</v>
+        <v/>
       </c>
       <c r="F48" t="n">
-        <v>8583000000</v>
+        <v/>
       </c>
       <c r="G48" t="n">
-        <v>9536000000</v>
+        <v/>
       </c>
       <c r="H48" t="n">
-        <v>8782000000</v>
+        <v/>
       </c>
       <c r="I48" t="n">
-        <v>9725000000</v>
+        <v>1972000000</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Short-term debt</t>
+          <t>Income tax payables</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>498054000</v>
+        <v/>
       </c>
       <c r="C49" t="n">
-        <v>2588809000</v>
+        <v/>
       </c>
       <c r="D49" t="n">
         <v/>
       </c>
       <c r="E49" t="n">
-        <v>4399220000</v>
+        <v/>
       </c>
       <c r="F49" t="n">
-        <v>5940000000</v>
+        <v/>
       </c>
       <c r="G49" t="n">
-        <v>8583000000</v>
+        <v/>
       </c>
       <c r="H49" t="n">
-        <v>9536000000</v>
+        <v/>
       </c>
       <c r="I49" t="n">
-        <v>8782000000</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Debt to credit institutions</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>66425000</v>
-      </c>
-      <c r="C50" t="n">
-        <v>327981000</v>
-      </c>
-      <c r="D50" t="n">
-        <v>277970000</v>
-      </c>
-      <c r="E50" t="n">
-        <v>661189000</v>
-      </c>
-      <c r="F50" t="n">
-        <v>2052000000</v>
-      </c>
-      <c r="G50" t="n">
-        <v>1262000000</v>
-      </c>
-      <c r="H50" t="n">
-        <v>3292000000</v>
-      </c>
-      <c r="I50" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>831317000</v>
-      </c>
-      <c r="C51" t="n">
-        <v>1448578000</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1527587000</v>
-      </c>
-      <c r="E51" t="n">
-        <v>1836888000</v>
-      </c>
-      <c r="F51" t="n">
-        <v>2731000000</v>
-      </c>
-      <c r="G51" t="n">
-        <v>2767000000</v>
-      </c>
-      <c r="H51" t="n">
-        <v>3157000000</v>
-      </c>
-      <c r="I51" t="n">
-        <v>4614000000</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Income tax payable</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>43370000</v>
-      </c>
-      <c r="C52" t="n">
-        <v>128496000</v>
-      </c>
-      <c r="D52" t="n">
-        <v>99387000</v>
-      </c>
-      <c r="E52" t="n">
-        <v>138668000</v>
-      </c>
-      <c r="F52" t="n">
-        <v>330000000</v>
-      </c>
-      <c r="G52" t="n">
-        <v>51000000</v>
-      </c>
-      <c r="H52" t="n">
-        <v>65000000</v>
-      </c>
-      <c r="I52" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Other current liabilities</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>399134000</v>
-      </c>
-      <c r="C53" t="n">
-        <v/>
-      </c>
-      <c r="D53" t="n">
-        <v/>
-      </c>
-      <c r="E53" t="n">
-        <v/>
-      </c>
-      <c r="F53" t="n">
-        <v/>
-      </c>
-      <c r="G53" t="n">
-        <v/>
-      </c>
-      <c r="H53" t="n">
-        <v/>
-      </c>
-      <c r="I53" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Liabilities held for sale</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>1527158000</v>
-      </c>
-      <c r="C54" t="n">
-        <v/>
-      </c>
-      <c r="D54" t="n">
-        <v/>
-      </c>
-      <c r="E54" t="n">
-        <v/>
-      </c>
-      <c r="F54" t="n">
-        <v/>
-      </c>
-      <c r="G54" t="n">
-        <v/>
-      </c>
-      <c r="H54" t="n">
-        <v/>
-      </c>
-      <c r="I54" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Total short-term debt</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>1581401000</v>
-      </c>
-      <c r="C55" t="n">
-        <v>3551643000</v>
-      </c>
-      <c r="D55" t="n">
-        <v>2955080000</v>
-      </c>
-      <c r="E55" t="n">
-        <v>4014890000</v>
-      </c>
-      <c r="F55" t="n">
-        <v>8824000000</v>
-      </c>
-      <c r="G55" t="n">
-        <v>6516000000</v>
-      </c>
-      <c r="H55" t="n">
-        <v>9471000000</v>
-      </c>
-      <c r="I55" t="n">
-        <v>12250000000</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Total debt</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>2267209000</v>
-      </c>
-      <c r="C56" t="n">
-        <v>8158095000</v>
-      </c>
-      <c r="D56" t="n">
-        <v>7354300000</v>
-      </c>
-      <c r="E56" t="n">
-        <v>8015073000</v>
-      </c>
-      <c r="F56" t="n">
-        <v>17407000000</v>
-      </c>
-      <c r="G56" t="n">
-        <v>16052000000</v>
-      </c>
-      <c r="H56" t="n">
-        <v>18253000000</v>
-      </c>
-      <c r="I56" t="n">
-        <v>21975000000</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>TOTAL EQUITY AND LIABILITIES</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>11024652000</v>
-      </c>
-      <c r="C57" t="n">
-        <v>14476853000</v>
-      </c>
-      <c r="D57" t="n">
-        <v>14813342000</v>
-      </c>
-      <c r="E57" t="n">
-        <v>16347935000</v>
-      </c>
-      <c r="F57" t="n">
-        <v>31129000000</v>
-      </c>
-      <c r="G57" t="n">
-        <v>29004000000</v>
-      </c>
-      <c r="H57" t="n">
-        <v>30888000000</v>
-      </c>
-      <c r="I57" t="n">
-        <v>41850000000</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Other intangible assets</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v/>
-      </c>
-      <c r="C58" t="n">
-        <v>643493000</v>
-      </c>
-      <c r="D58" t="n">
-        <v>693013000</v>
-      </c>
-      <c r="E58" t="n">
-        <v>719350000</v>
-      </c>
-      <c r="F58" t="n">
-        <v>922000000</v>
-      </c>
-      <c r="G58" t="n">
-        <v/>
-      </c>
-      <c r="H58" t="n">
-        <v>1319000000</v>
-      </c>
-      <c r="I58" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>Equipement</t>
-        </is>
-      </c>
-      <c r="B59" t="n">
-        <v/>
-      </c>
-      <c r="C59" t="n">
-        <v>161142000</v>
-      </c>
-      <c r="D59" t="n">
-        <v/>
-      </c>
-      <c r="E59" t="n">
-        <v/>
-      </c>
-      <c r="F59" t="n">
-        <v/>
-      </c>
-      <c r="G59" t="n">
-        <v/>
-      </c>
-      <c r="H59" t="n">
-        <v/>
-      </c>
-      <c r="I59" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>Andre fordringer</t>
-        </is>
-      </c>
-      <c r="B60" t="n">
-        <v/>
-      </c>
-      <c r="C60" t="n">
-        <v>755737000</v>
-      </c>
-      <c r="D60" t="n">
-        <v>604656000</v>
-      </c>
-      <c r="E60" t="n">
-        <v/>
-      </c>
-      <c r="F60" t="n">
-        <v/>
-      </c>
-      <c r="G60" t="n">
-        <v/>
-      </c>
-      <c r="H60" t="n">
-        <v/>
-      </c>
-      <c r="I60" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="inlineStr">
-        <is>
-          <t>Investeringer</t>
-        </is>
-      </c>
-      <c r="B61" t="n">
-        <v/>
-      </c>
-      <c r="C61" t="n">
-        <v>2691234000</v>
-      </c>
-      <c r="D61" t="n">
-        <v>2619747000</v>
-      </c>
-      <c r="E61" t="n">
-        <v>2475426000</v>
-      </c>
-      <c r="F61" t="n">
-        <v>4609000000</v>
-      </c>
-      <c r="G61" t="n">
-        <v>3226000000</v>
-      </c>
-      <c r="H61" t="n">
-        <v/>
-      </c>
-      <c r="I61" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>Provisions and other non-curent liabilities</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v/>
-      </c>
-      <c r="C62" t="n">
-        <v>262184000</v>
-      </c>
-      <c r="D62" t="n">
-        <v/>
-      </c>
-      <c r="E62" t="n">
-        <v/>
-      </c>
-      <c r="F62" t="n">
-        <v/>
-      </c>
-      <c r="G62" t="n">
-        <v/>
-      </c>
-      <c r="H62" t="n">
-        <v/>
-      </c>
-      <c r="I62" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>Provisons and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v/>
-      </c>
-      <c r="C63" t="n">
-        <v>1031380000</v>
-      </c>
-      <c r="D63" t="n">
-        <v/>
-      </c>
-      <c r="E63" t="n">
-        <v/>
-      </c>
-      <c r="F63" t="n">
-        <v/>
-      </c>
-      <c r="G63" t="n">
-        <v/>
-      </c>
-      <c r="H63" t="n">
-        <v/>
-      </c>
-      <c r="I63" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="inlineStr">
-        <is>
-          <t>Driftsløsøre, inventar, verktøy, kontormaskiner og lignende</t>
-        </is>
-      </c>
-      <c r="B64" t="n">
-        <v/>
-      </c>
-      <c r="C64" t="n">
-        <v/>
-      </c>
-      <c r="D64" t="n">
-        <v>182526000</v>
-      </c>
-      <c r="E64" t="n">
-        <v/>
-      </c>
-      <c r="F64" t="n">
-        <v/>
-      </c>
-      <c r="G64" t="n">
-        <v/>
-      </c>
-      <c r="H64" t="n">
-        <v/>
-      </c>
-      <c r="I64" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>construction in progress</t>
-        </is>
-      </c>
-      <c r="B65" t="n">
-        <v/>
-      </c>
-      <c r="C65" t="n">
-        <v/>
-      </c>
-      <c r="D65" t="n">
-        <v>426661000</v>
-      </c>
-      <c r="E65" t="n">
-        <v/>
-      </c>
-      <c r="F65" t="n">
-        <v/>
-      </c>
-      <c r="G65" t="n">
-        <v/>
-      </c>
-      <c r="H65" t="n">
-        <v/>
-      </c>
-      <c r="I65" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="inlineStr">
-        <is>
-          <t>DErivates</t>
-        </is>
-      </c>
-      <c r="B66" t="n">
-        <v/>
-      </c>
-      <c r="C66" t="n">
-        <v/>
-      </c>
-      <c r="D66" t="n">
-        <v>119161000</v>
-      </c>
-      <c r="E66" t="n">
-        <v/>
-      </c>
-      <c r="F66" t="n">
-        <v/>
-      </c>
-      <c r="G66" t="n">
-        <v/>
-      </c>
-      <c r="H66" t="n">
-        <v/>
-      </c>
-      <c r="I66" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>Provisons and other non-current liabilities</t>
-        </is>
-      </c>
-      <c r="B67" t="n">
-        <v/>
-      </c>
-      <c r="C67" t="n">
-        <v/>
-      </c>
-      <c r="D67" t="n">
-        <v>463560000</v>
-      </c>
-      <c r="E67" t="n">
-        <v/>
-      </c>
-      <c r="F67" t="n">
-        <v/>
-      </c>
-      <c r="G67" t="n">
-        <v/>
-      </c>
-      <c r="H67" t="n">
-        <v/>
-      </c>
-      <c r="I67" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>Provisions and other current liabilities</t>
-        </is>
-      </c>
-      <c r="B68" t="n">
-        <v/>
-      </c>
-      <c r="C68" t="n">
-        <v/>
-      </c>
-      <c r="D68" t="n">
-        <v>922135000</v>
-      </c>
-      <c r="E68" t="n">
-        <v>1131462000</v>
-      </c>
-      <c r="F68" t="n">
-        <v>1221000000</v>
-      </c>
-      <c r="G68" t="n">
-        <v/>
-      </c>
-      <c r="H68" t="n">
-        <v/>
-      </c>
-      <c r="I68" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>Provisions and other non-current liabilities</t>
-        </is>
-      </c>
-      <c r="B69" t="n">
-        <v/>
-      </c>
-      <c r="C69" t="n">
-        <v/>
-      </c>
-      <c r="D69" t="n">
-        <v/>
-      </c>
-      <c r="E69" t="n">
-        <v>389859000</v>
-      </c>
-      <c r="F69" t="n">
-        <v>232000000</v>
-      </c>
-      <c r="G69" t="n">
-        <v/>
-      </c>
-      <c r="H69" t="n">
-        <v/>
-      </c>
-      <c r="I69" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="inlineStr">
-        <is>
-          <t>Property, plant and equipment</t>
-        </is>
-      </c>
-      <c r="B70" t="n">
-        <v/>
-      </c>
-      <c r="C70" t="n">
-        <v/>
-      </c>
-      <c r="D70" t="n">
-        <v/>
-      </c>
-      <c r="E70" t="n">
-        <v/>
-      </c>
-      <c r="F70" t="n">
-        <v>12445000000</v>
-      </c>
-      <c r="G70" t="n">
-        <v>13202000000</v>
-      </c>
-      <c r="H70" t="n">
-        <v>14131000000</v>
-      </c>
-      <c r="I70" t="n">
-        <v>15722000000</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Derivatives</t>
-        </is>
-      </c>
-      <c r="B71" t="n">
-        <v/>
-      </c>
-      <c r="C71" t="n">
-        <v/>
-      </c>
-      <c r="D71" t="n">
-        <v/>
-      </c>
-      <c r="E71" t="n">
-        <v/>
-      </c>
-      <c r="F71" t="n">
-        <v>79000000</v>
-      </c>
-      <c r="G71" t="n">
-        <v>37000000</v>
-      </c>
-      <c r="H71" t="n">
-        <v>101000000</v>
-      </c>
-      <c r="I71" t="n">
-        <v>23000000</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Restricted deposits</t>
-        </is>
-      </c>
-      <c r="B72" t="n">
-        <v/>
-      </c>
-      <c r="C72" t="n">
-        <v/>
-      </c>
-      <c r="D72" t="n">
-        <v/>
-      </c>
-      <c r="E72" t="n">
-        <v/>
-      </c>
-      <c r="F72" t="n">
-        <v>577000000</v>
-      </c>
-      <c r="G72" t="n">
-        <v>271000000</v>
-      </c>
-      <c r="H72" t="n">
-        <v>322000000</v>
-      </c>
-      <c r="I72" t="n">
-        <v>609000000</v>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" t="inlineStr">
-        <is>
-          <t>Minority interests</t>
-        </is>
-      </c>
-      <c r="B73" t="n">
-        <v/>
-      </c>
-      <c r="C73" t="n">
-        <v/>
-      </c>
-      <c r="D73" t="n">
-        <v/>
-      </c>
-      <c r="E73" t="n">
-        <v/>
-      </c>
-      <c r="F73" t="n">
-        <v>101000000</v>
-      </c>
-      <c r="G73" t="n">
-        <v>96000000</v>
-      </c>
-      <c r="H73" t="n">
-        <v>108000000</v>
-      </c>
-      <c r="I73" t="n">
-        <v>86000000</v>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t>Employee benefit obligations</t>
-        </is>
-      </c>
-      <c r="B74" t="n">
-        <v/>
-      </c>
-      <c r="C74" t="n">
-        <v/>
-      </c>
-      <c r="D74" t="n">
-        <v/>
-      </c>
-      <c r="E74" t="n">
-        <v/>
-      </c>
-      <c r="F74" t="n">
-        <v>671000000</v>
-      </c>
-      <c r="G74" t="n">
-        <v>640000000</v>
-      </c>
-      <c r="H74" t="n">
-        <v>740000000</v>
-      </c>
-      <c r="I74" t="n">
-        <v>976000000</v>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" t="inlineStr">
-        <is>
-          <t>Bills payable</t>
-        </is>
-      </c>
-      <c r="B75" t="n">
-        <v/>
-      </c>
-      <c r="C75" t="n">
-        <v/>
-      </c>
-      <c r="D75" t="n">
-        <v/>
-      </c>
-      <c r="E75" t="n">
-        <v/>
-      </c>
-      <c r="F75" t="n">
-        <v>1740000000</v>
-      </c>
-      <c r="G75" t="n">
-        <v>887000000</v>
-      </c>
-      <c r="H75" t="n">
-        <v>1053000000</v>
-      </c>
-      <c r="I75" t="n">
-        <v>2096000000</v>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Other intangibles</t>
-        </is>
-      </c>
-      <c r="B76" t="n">
-        <v/>
-      </c>
-      <c r="C76" t="n">
-        <v/>
-      </c>
-      <c r="D76" t="n">
-        <v/>
-      </c>
-      <c r="E76" t="n">
-        <v/>
-      </c>
-      <c r="F76" t="n">
-        <v/>
-      </c>
-      <c r="G76" t="n">
-        <v>777000000</v>
-      </c>
-      <c r="H76" t="n">
-        <v/>
-      </c>
-      <c r="I76" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Right-of-use-assets</t>
-        </is>
-      </c>
-      <c r="B77" t="n">
-        <v/>
-      </c>
-      <c r="C77" t="n">
-        <v/>
-      </c>
-      <c r="D77" t="n">
-        <v/>
-      </c>
-      <c r="E77" t="n">
-        <v/>
-      </c>
-      <c r="F77" t="n">
-        <v/>
-      </c>
-      <c r="G77" t="n">
-        <v>580000000</v>
-      </c>
-      <c r="H77" t="n">
-        <v/>
-      </c>
-      <c r="I77" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Other assets</t>
-        </is>
-      </c>
-      <c r="B78" t="n">
-        <v/>
-      </c>
-      <c r="C78" t="n">
-        <v/>
-      </c>
-      <c r="D78" t="n">
-        <v/>
-      </c>
-      <c r="E78" t="n">
-        <v/>
-      </c>
-      <c r="F78" t="n">
-        <v/>
-      </c>
-      <c r="G78" t="n">
-        <v>406000000</v>
-      </c>
-      <c r="H78" t="n">
-        <v>1212000000</v>
-      </c>
-      <c r="I78" t="n">
-        <v>1552000000</v>
-      </c>
-    </row>
-    <row r="79">
-      <c r="A79" t="inlineStr">
-        <is>
-          <t>Othe assets</t>
-        </is>
-      </c>
-      <c r="B79" t="n">
-        <v/>
-      </c>
-      <c r="C79" t="n">
-        <v/>
-      </c>
-      <c r="D79" t="n">
-        <v/>
-      </c>
-      <c r="E79" t="n">
-        <v/>
-      </c>
-      <c r="F79" t="n">
-        <v/>
-      </c>
-      <c r="G79" t="n">
-        <v>1014000000</v>
-      </c>
-      <c r="H79" t="n">
-        <v/>
-      </c>
-      <c r="I79" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="80">
-      <c r="A80" t="inlineStr">
-        <is>
-          <t>Provisions and other non-current lia</t>
-        </is>
-      </c>
-      <c r="B80" t="n">
-        <v/>
-      </c>
-      <c r="C80" t="n">
-        <v/>
-      </c>
-      <c r="D80" t="n">
-        <v/>
-      </c>
-      <c r="E80" t="n">
-        <v/>
-      </c>
-      <c r="F80" t="n">
-        <v/>
-      </c>
-      <c r="G80" t="n">
-        <v>159000000</v>
-      </c>
-      <c r="H80" t="n">
-        <v/>
-      </c>
-      <c r="I80" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="81">
-      <c r="A81" t="inlineStr">
-        <is>
-          <t>Provisions and other current liabilitie</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v/>
-      </c>
-      <c r="C81" t="n">
-        <v/>
-      </c>
-      <c r="D81" t="n">
-        <v/>
-      </c>
-      <c r="E81" t="n">
-        <v/>
-      </c>
-      <c r="F81" t="n">
-        <v/>
-      </c>
-      <c r="G81" t="n">
-        <v>872000000</v>
-      </c>
-      <c r="H81" t="n">
-        <v/>
-      </c>
-      <c r="I81" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="82">
-      <c r="A82" t="inlineStr">
-        <is>
-          <t>Right-of-use assets</t>
-        </is>
-      </c>
-      <c r="B82" t="n">
-        <v/>
-      </c>
-      <c r="C82" t="n">
-        <v/>
-      </c>
-      <c r="D82" t="n">
-        <v/>
-      </c>
-      <c r="E82" t="n">
-        <v/>
-      </c>
-      <c r="F82" t="n">
-        <v/>
-      </c>
-      <c r="G82" t="n">
-        <v/>
-      </c>
-      <c r="H82" t="n">
-        <v>875000000</v>
-      </c>
-      <c r="I82" t="n">
-        <v>1017000000</v>
-      </c>
-    </row>
-    <row r="83">
-      <c r="A83" t="inlineStr">
-        <is>
-          <t>Investments in equity accounted companies</t>
-        </is>
-      </c>
-      <c r="B83" t="n">
-        <v/>
-      </c>
-      <c r="C83" t="n">
-        <v/>
-      </c>
-      <c r="D83" t="n">
-        <v/>
-      </c>
-      <c r="E83" t="n">
-        <v/>
-      </c>
-      <c r="F83" t="n">
-        <v/>
-      </c>
-      <c r="G83" t="n">
-        <v/>
-      </c>
-      <c r="H83" t="n">
-        <v>183000000</v>
-      </c>
-      <c r="I83" t="n">
-        <v>241000000</v>
-      </c>
-    </row>
-    <row r="84">
-      <c r="A84" t="inlineStr">
-        <is>
-          <t>Other paid in capital</t>
-        </is>
-      </c>
-      <c r="B84" t="n">
-        <v/>
-      </c>
-      <c r="C84" t="n">
-        <v/>
-      </c>
-      <c r="D84" t="n">
-        <v/>
-      </c>
-      <c r="E84" t="n">
-        <v/>
-      </c>
-      <c r="F84" t="n">
-        <v/>
-      </c>
-      <c r="G84" t="n">
-        <v/>
-      </c>
-      <c r="H84" t="n">
-        <v>3389000000</v>
-      </c>
-      <c r="I84" t="n">
-        <v/>
-      </c>
-    </row>
-    <row r="85">
-      <c r="A85" t="inlineStr">
-        <is>
-          <t>Provisions and other liabilities</t>
-        </is>
-      </c>
-      <c r="B85" t="n">
-        <v/>
-      </c>
-      <c r="C85" t="n">
-        <v/>
-      </c>
-      <c r="D85" t="n">
-        <v/>
-      </c>
-      <c r="E85" t="n">
-        <v/>
-      </c>
-      <c r="F85" t="n">
-        <v/>
-      </c>
-      <c r="G85" t="n">
-        <v/>
-      </c>
-      <c r="H85" t="n">
-        <v>1063000000</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1655000000</v>
-      </c>
-    </row>
-    <row r="86">
-      <c r="A86" t="inlineStr">
-        <is>
-          <t>Other intagible assets</t>
-        </is>
-      </c>
-      <c r="B86" t="n">
-        <v/>
-      </c>
-      <c r="C86" t="n">
-        <v/>
-      </c>
-      <c r="D86" t="n">
-        <v/>
-      </c>
-      <c r="E86" t="n">
-        <v/>
-      </c>
-      <c r="F86" t="n">
-        <v/>
-      </c>
-      <c r="G86" t="n">
-        <v/>
-      </c>
-      <c r="H86" t="n">
-        <v/>
-      </c>
-      <c r="I86" t="n">
-        <v>1602000000</v>
-      </c>
-    </row>
-    <row r="87">
-      <c r="A87" t="inlineStr">
-        <is>
-          <t>Paid-in capital</t>
-        </is>
-      </c>
-      <c r="B87" t="n">
-        <v/>
-      </c>
-      <c r="C87" t="n">
-        <v/>
-      </c>
-      <c r="D87" t="n">
-        <v/>
-      </c>
-      <c r="E87" t="n">
-        <v/>
-      </c>
-      <c r="F87" t="n">
-        <v/>
-      </c>
-      <c r="G87" t="n">
-        <v/>
-      </c>
-      <c r="H87" t="n">
-        <v/>
-      </c>
-      <c r="I87" t="n">
-        <v>8097000000</v>
-      </c>
-    </row>
-    <row r="88">
-      <c r="A88" t="inlineStr">
-        <is>
-          <t>Interest-bearing liabilities</t>
-        </is>
-      </c>
-      <c r="B88" t="n">
-        <v/>
-      </c>
-      <c r="C88" t="n">
-        <v/>
-      </c>
-      <c r="D88" t="n">
-        <v/>
-      </c>
-      <c r="E88" t="n">
-        <v/>
-      </c>
-      <c r="F88" t="n">
-        <v/>
-      </c>
-      <c r="G88" t="n">
-        <v/>
-      </c>
-      <c r="H88" t="n">
-        <v/>
-      </c>
-      <c r="I88" t="n">
-        <v>1972000000</v>
-      </c>
-    </row>
-    <row r="89">
-      <c r="A89" t="inlineStr">
-        <is>
-          <t>Income tax payables</t>
-        </is>
-      </c>
-      <c r="B89" t="n">
-        <v/>
-      </c>
-      <c r="C89" t="n">
-        <v/>
-      </c>
-      <c r="D89" t="n">
-        <v/>
-      </c>
-      <c r="E89" t="n">
-        <v/>
-      </c>
-      <c r="F89" t="n">
-        <v/>
-      </c>
-      <c r="G89" t="n">
-        <v/>
-      </c>
-      <c r="H89" t="n">
-        <v/>
-      </c>
-      <c r="I89" t="n">
         <v>914000000</v>
       </c>
     </row>

--- a/elkem_financial_data.xlsx
+++ b/elkem_financial_data.xlsx
@@ -416,7 +416,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:W27"/>
+  <dimension ref="A1:W26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -749,43 +749,43 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7788724000</v>
+        <v>1358684000</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>12673949000</v>
+        <v>2438997000</v>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="H6" t="n">
-        <v>14541057000</v>
+        <v>2559950000</v>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="K6" t="n">
-        <v>14226169000</v>
+        <v>2857634000</v>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="N6" t="n">
-        <v>21403000000</v>
+        <v>3449000000</v>
       </c>
       <c r="P6" t="inlineStr">
         <is>
@@ -815,199 +815,199 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
+          <t>Amortisation and depreciation</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
+        <v>394347000</v>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>Amortisation and depreciation</t>
+        </is>
+      </c>
+      <c r="E7" t="n">
+        <v>674383000</v>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Amortisation and depreciation</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>717781000</v>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Amortisation and depreciation</t>
+        </is>
+      </c>
+      <c r="K7" t="n">
+        <v>776023000</v>
+      </c>
+      <c r="M7" t="inlineStr">
+        <is>
+          <t>Amortisation and depreciation</t>
+        </is>
+      </c>
+      <c r="N7" t="n">
+        <v>1263000000</v>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>Employee benefit expenses</t>
         </is>
       </c>
-      <c r="B7" t="n">
-        <v>1358684000</v>
-      </c>
-      <c r="D7" t="inlineStr">
+      <c r="Q7" t="n">
+        <v>3696000000</v>
+      </c>
+      <c r="S7" t="inlineStr">
         <is>
           <t>Employee benefit expenses</t>
         </is>
       </c>
-      <c r="E7" t="n">
-        <v>2438997000</v>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Employee benefit expenses</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>2559950000</v>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Employee benefit expenses</t>
-        </is>
-      </c>
-      <c r="K7" t="n">
-        <v>2857634000</v>
-      </c>
-      <c r="M7" t="inlineStr">
-        <is>
-          <t>Employee benefit expenses</t>
-        </is>
-      </c>
-      <c r="N7" t="n">
-        <v>3449000000</v>
-      </c>
-      <c r="P7" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
-      <c r="Q7" t="n">
-        <v>25230000000</v>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>Expenses</t>
-        </is>
-      </c>
       <c r="T7" t="n">
-        <v>22668000000</v>
+        <v>4028000000</v>
       </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Raw materials and energy for production</t>
         </is>
       </c>
       <c r="W7" t="n">
-        <v>24691000000</v>
+        <v>15861000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
+          <t>Impairment losses</t>
+        </is>
+      </c>
+      <c r="B8" t="n">
+        <v>730000</v>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>Impairment losses</t>
+        </is>
+      </c>
+      <c r="E8" t="n">
+        <v>1813000</v>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Impairment losses</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>11818000</v>
+      </c>
+      <c r="J8" t="inlineStr">
+        <is>
+          <t>Impairment losses</t>
+        </is>
+      </c>
+      <c r="K8" t="n">
+        <v>16809000</v>
+      </c>
+      <c r="M8" t="inlineStr">
+        <is>
+          <t>Impairment losses</t>
+        </is>
+      </c>
+      <c r="N8" t="n">
+        <v>8000000</v>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
           <t>Amortisation and depreciation</t>
         </is>
       </c>
-      <c r="B8" t="n">
-        <v>394347000</v>
-      </c>
-      <c r="D8" t="inlineStr">
+      <c r="Q8" t="n">
+        <v>1456000000</v>
+      </c>
+      <c r="S8" t="inlineStr">
         <is>
           <t>Amortisation and depreciation</t>
         </is>
       </c>
-      <c r="E8" t="n">
-        <v>674383000</v>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Amortisation and depreciation</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>717781000</v>
-      </c>
-      <c r="J8" t="inlineStr">
-        <is>
-          <t>Amortisation and depreciation</t>
-        </is>
-      </c>
-      <c r="K8" t="n">
-        <v>776023000</v>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Amortisation and depreciation</t>
-        </is>
-      </c>
-      <c r="N8" t="n">
-        <v>1263000000</v>
-      </c>
-      <c r="P8" t="inlineStr">
+      <c r="T8" t="n">
+        <v>1710000000</v>
+      </c>
+      <c r="V8" t="inlineStr">
         <is>
           <t>Employee benefit expenses</t>
         </is>
       </c>
-      <c r="Q8" t="n">
-        <v>3696000000</v>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Employee benefit expenses</t>
-        </is>
-      </c>
-      <c r="T8" t="n">
-        <v>4028000000</v>
-      </c>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>Raw materials and energy for production</t>
-        </is>
-      </c>
       <c r="W8" t="n">
-        <v>15861000000</v>
+        <v>4530000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
+          <t>Other operating expenses</t>
+        </is>
+      </c>
+      <c r="B9" t="n">
+        <v>1982864000</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>Other operating expenses</t>
+        </is>
+      </c>
+      <c r="E9" t="n">
+        <v>3048051000</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Other operating expenses</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3149390000</v>
+      </c>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Other operating expenses</t>
+        </is>
+      </c>
+      <c r="K9" t="n">
+        <v>3575874000</v>
+      </c>
+      <c r="M9" t="inlineStr">
+        <is>
+          <t>Other operating expenses</t>
+        </is>
+      </c>
+      <c r="N9" t="n">
+        <v>4622000000</v>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>Impairment losses</t>
         </is>
       </c>
-      <c r="B9" t="n">
-        <v>730000</v>
-      </c>
-      <c r="D9" t="inlineStr">
+      <c r="Q9" t="n">
+        <v>11000000</v>
+      </c>
+      <c r="S9" t="inlineStr">
         <is>
           <t>Impairment losses</t>
         </is>
       </c>
-      <c r="E9" t="n">
-        <v>1813000</v>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>Impairment losses</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>11818000</v>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Impairment losses</t>
-        </is>
-      </c>
-      <c r="K9" t="n">
-        <v>16809000</v>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Impairment losses</t>
-        </is>
-      </c>
-      <c r="N9" t="n">
-        <v>8000000</v>
-      </c>
-      <c r="P9" t="inlineStr">
+      <c r="T9" t="n">
+        <v>17000000</v>
+      </c>
+      <c r="V9" t="inlineStr">
         <is>
           <t>Amortisation and depreciation</t>
         </is>
       </c>
-      <c r="Q9" t="n">
-        <v>1456000000</v>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Amortisation and depreciation</t>
-        </is>
-      </c>
-      <c r="T9" t="n">
-        <v>1710000000</v>
-      </c>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t>Employee benefit expenses</t>
-        </is>
-      </c>
       <c r="W9" t="n">
-        <v>4530000000</v>
+        <v>1816000000</v>
       </c>
     </row>
     <row r="10">
@@ -1037,43 +1037,43 @@
       </c>
       <c r="J10" t="inlineStr">
         <is>
+          <t>Total expenses</t>
+        </is>
+      </c>
+      <c r="K10" t="n">
+        <v>15302934000</v>
+      </c>
+      <c r="M10" t="inlineStr">
+        <is>
+          <t>Total expenses</t>
+        </is>
+      </c>
+      <c r="N10" t="n">
+        <v>21745000000</v>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>Other operating expenses</t>
         </is>
       </c>
-      <c r="K10" t="n">
-        <v>3575874000</v>
-      </c>
-      <c r="M10" t="inlineStr">
+      <c r="Q10" t="n">
+        <v>4804000000</v>
+      </c>
+      <c r="S10" t="inlineStr">
         <is>
           <t>Other operating expenses</t>
         </is>
       </c>
-      <c r="N10" t="n">
-        <v>4622000000</v>
-      </c>
-      <c r="P10" t="inlineStr">
+      <c r="T10" t="n">
+        <v>5121000000</v>
+      </c>
+      <c r="V10" t="inlineStr">
         <is>
           <t>Impairment losses</t>
         </is>
       </c>
-      <c r="Q10" t="n">
-        <v>11000000</v>
-      </c>
-      <c r="S10" t="inlineStr">
-        <is>
-          <t>Impairment losses</t>
-        </is>
-      </c>
-      <c r="T10" t="n">
-        <v>17000000</v>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>Amortisation and depreciation</t>
-        </is>
-      </c>
       <c r="W10" t="n">
-        <v>1816000000</v>
+        <v>76000000</v>
       </c>
     </row>
     <row r="11">
@@ -1103,43 +1103,43 @@
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Total expenses</t>
+          <t>Operating profit</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>15302934000</v>
+        <v>1354948000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Total expenses</t>
+          <t>Operating profit</t>
         </is>
       </c>
       <c r="N11" t="n">
-        <v>21745000000</v>
+        <v>4142000000</v>
       </c>
       <c r="P11" t="inlineStr">
         <is>
+          <t>Other items</t>
+        </is>
+      </c>
+      <c r="Q11" t="n">
+        <v>-195000000</v>
+      </c>
+      <c r="S11" t="inlineStr">
+        <is>
+          <t>Other items</t>
+        </is>
+      </c>
+      <c r="T11" t="n">
+        <v>130000000</v>
+      </c>
+      <c r="V11" t="inlineStr">
+        <is>
           <t>Other operating expenses</t>
         </is>
       </c>
-      <c r="Q11" t="n">
-        <v>4804000000</v>
-      </c>
-      <c r="S11" t="inlineStr">
-        <is>
-          <t>Other operating expenses</t>
-        </is>
-      </c>
-      <c r="T11" t="n">
-        <v>5121000000</v>
-      </c>
-      <c r="V11" t="inlineStr">
-        <is>
-          <t>Impairment losses</t>
-        </is>
-      </c>
       <c r="W11" t="n">
-        <v>76000000</v>
+        <v>5536000000</v>
       </c>
     </row>
     <row r="12">
@@ -1169,43 +1169,43 @@
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Operating profit</t>
+          <t>Finance income and expenses</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>1354948000</v>
+        <v>940629000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Operating profit</t>
+          <t>Finance income and expenses</t>
         </is>
       </c>
       <c r="N12" t="n">
-        <v>4142000000</v>
+        <v>1971000000</v>
       </c>
       <c r="P12" t="inlineStr">
         <is>
+          <t>Total expenses</t>
+        </is>
+      </c>
+      <c r="Q12" t="n">
+        <v>21284000000</v>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
+          <t>Total expenses</t>
+        </is>
+      </c>
+      <c r="T12" t="n">
+        <v>23864000000</v>
+      </c>
+      <c r="V12" t="inlineStr">
+        <is>
           <t>Other items</t>
         </is>
       </c>
-      <c r="Q12" t="n">
-        <v>-195000000</v>
-      </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Other items</t>
-        </is>
-      </c>
-      <c r="T12" t="n">
-        <v>130000000</v>
-      </c>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t>Other operating expenses</t>
-        </is>
-      </c>
       <c r="W12" t="n">
-        <v>5536000000</v>
+        <v>113000000</v>
       </c>
     </row>
     <row r="13">
@@ -1235,43 +1235,43 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Finance income and expenses</t>
+          <t>Finance income</t>
         </is>
       </c>
       <c r="K13" t="n">
-        <v>940629000</v>
+        <v>19219000</v>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Finance income and expenses</t>
+          <t>Finance income</t>
         </is>
       </c>
       <c r="N13" t="n">
-        <v>1971000000</v>
+        <v>42000000</v>
       </c>
       <c r="P13" t="inlineStr">
         <is>
+          <t>Operating profit</t>
+        </is>
+      </c>
+      <c r="Q13" t="n">
+        <v>1384000000</v>
+      </c>
+      <c r="S13" t="inlineStr">
+        <is>
+          <t>Operating profit</t>
+        </is>
+      </c>
+      <c r="T13" t="n">
+        <v>827000000</v>
+      </c>
+      <c r="V13" t="inlineStr">
+        <is>
           <t>Total expenses</t>
         </is>
       </c>
-      <c r="Q13" t="n">
-        <v>21284000000</v>
-      </c>
-      <c r="S13" t="inlineStr">
-        <is>
-          <t>Total expenses</t>
-        </is>
-      </c>
-      <c r="T13" t="n">
-        <v>23864000000</v>
-      </c>
-      <c r="V13" t="inlineStr">
-        <is>
-          <t>Other items</t>
-        </is>
-      </c>
       <c r="W13" t="n">
-        <v>113000000</v>
+        <v>27932000000</v>
       </c>
     </row>
     <row r="14">
@@ -1301,43 +1301,43 @@
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Finance income</t>
+          <t>Total finance income</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>19219000</v>
+        <v>53363000</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Finance income</t>
+          <t>Total finance income</t>
         </is>
       </c>
       <c r="N14" t="n">
-        <v>42000000</v>
+        <v>19000000</v>
       </c>
       <c r="P14" t="inlineStr">
         <is>
+          <t>Finance income and expenses</t>
+        </is>
+      </c>
+      <c r="Q14" t="n">
+        <v>4142000000</v>
+      </c>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>Finance income and expenses</t>
+        </is>
+      </c>
+      <c r="T14" t="n">
+        <v>1384000000</v>
+      </c>
+      <c r="V14" t="inlineStr">
+        <is>
           <t>Operating profit</t>
         </is>
       </c>
-      <c r="Q14" t="n">
-        <v>1384000000</v>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Operating profit</t>
-        </is>
-      </c>
-      <c r="T14" t="n">
-        <v>827000000</v>
-      </c>
-      <c r="V14" t="inlineStr">
-        <is>
-          <t>Total expenses</t>
-        </is>
-      </c>
       <c r="W14" t="n">
-        <v>27932000000</v>
+        <v>5785000000</v>
       </c>
     </row>
     <row r="15">
@@ -1367,43 +1367,43 @@
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Total finance income</t>
+          <t>Finance expenses</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>53363000</v>
+        <v>119376000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Total finance income</t>
+          <t>Finance expenses</t>
         </is>
       </c>
       <c r="N15" t="n">
-        <v>19000000</v>
+        <v>388000000</v>
       </c>
       <c r="P15" t="inlineStr">
         <is>
+          <t>Finance income</t>
+        </is>
+      </c>
+      <c r="Q15" t="n">
+        <v>41000000</v>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
+          <t>Finance income</t>
+        </is>
+      </c>
+      <c r="T15" t="n">
+        <v>31000000</v>
+      </c>
+      <c r="V15" t="inlineStr">
+        <is>
           <t>Finance income and expenses</t>
         </is>
       </c>
-      <c r="Q15" t="n">
-        <v>4142000000</v>
-      </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Finance income and expenses</t>
-        </is>
-      </c>
-      <c r="T15" t="n">
-        <v>1384000000</v>
-      </c>
-      <c r="V15" t="inlineStr">
-        <is>
-          <t>Operating profit</t>
-        </is>
-      </c>
       <c r="W15" t="n">
-        <v>5785000000</v>
+        <v>827000000</v>
       </c>
     </row>
     <row r="16">
@@ -1433,43 +1433,43 @@
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Finance expenses</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>119376000</v>
+        <v>7701000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Finance expenses</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="N16" t="n">
-        <v>388000000</v>
+        <v>-19000000</v>
       </c>
       <c r="P16" t="inlineStr">
         <is>
-          <t>Finance income</t>
+          <t>Total finance income</t>
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>41000000</v>
+        <v>29000000</v>
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Finance income</t>
+          <t>Total finance income</t>
         </is>
       </c>
       <c r="T16" t="n">
-        <v>31000000</v>
+        <v>16000000</v>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>Finance income and expenses</t>
+          <t>Share of profit (loss) from equity accounted financial investments</t>
         </is>
       </c>
       <c r="W16" t="n">
-        <v>827000000</v>
+        <v>37000000</v>
       </c>
     </row>
     <row r="17">
@@ -1499,43 +1499,43 @@
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Foreign exchange gains (losses)</t>
+          <t>Total finance expenses</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>7701000</v>
+        <v>127077000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Foreign exchange gains (losses)</t>
+          <t>Total finance expenses</t>
         </is>
       </c>
       <c r="N17" t="n">
-        <v>-19000000</v>
+        <v>369000000</v>
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>Total finance income</t>
+          <t>Finance expenses</t>
         </is>
       </c>
       <c r="Q17" t="n">
-        <v>29000000</v>
+        <v>295000000</v>
       </c>
       <c r="S17" t="inlineStr">
         <is>
-          <t>Total finance income</t>
+          <t>Finance expenses</t>
         </is>
       </c>
       <c r="T17" t="n">
-        <v>16000000</v>
+        <v>278000000</v>
       </c>
       <c r="V17" t="inlineStr">
         <is>
-          <t>Share of profit (loss) from equity accounted financial investments</t>
+          <t>Finance income</t>
         </is>
       </c>
       <c r="W17" t="n">
-        <v>37000000</v>
+        <v>40000000</v>
       </c>
     </row>
     <row r="18">
@@ -1565,43 +1565,43 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Total finance expenses</t>
+          <t>Net finance</t>
         </is>
       </c>
       <c r="K18" t="n">
-        <v>127077000</v>
+        <v>-73714000</v>
       </c>
       <c r="M18" t="inlineStr">
         <is>
-          <t>Total finance expenses</t>
+          <t>Net finance</t>
         </is>
       </c>
       <c r="N18" t="n">
-        <v>369000000</v>
+        <v>-350000000</v>
       </c>
       <c r="P18" t="inlineStr">
         <is>
-          <t>Finance expenses</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="Q18" t="n">
-        <v>295000000</v>
+        <v>-16000000</v>
       </c>
       <c r="S18" t="inlineStr">
         <is>
-          <t>Finance expenses</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="T18" t="n">
-        <v>278000000</v>
+        <v>-19000000</v>
       </c>
       <c r="V18" t="inlineStr">
         <is>
-          <t>Finance income</t>
+          <t>Total finance income</t>
         </is>
       </c>
       <c r="W18" t="n">
-        <v>40000000</v>
+        <v>77000000</v>
       </c>
     </row>
     <row r="19">
@@ -1631,43 +1631,43 @@
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Net finance</t>
+          <t>Profit before tax</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>-73714000</v>
+        <v>1281234000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
-          <t>Net finance</t>
+          <t>Profit before tax</t>
         </is>
       </c>
       <c r="N19" t="n">
-        <v>-350000000</v>
+        <v>3792000000</v>
       </c>
       <c r="P19" t="inlineStr">
         <is>
-          <t>Foreign exchange gains (losses)</t>
+          <t>Total finance expenses</t>
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>-16000000</v>
+        <v>279000000</v>
       </c>
       <c r="S19" t="inlineStr">
         <is>
-          <t>Foreign exchange gains (losses)</t>
+          <t>Total finance expenses</t>
         </is>
       </c>
       <c r="T19" t="n">
-        <v>-19000000</v>
+        <v>259000000</v>
       </c>
       <c r="V19" t="inlineStr">
         <is>
-          <t>Total finance income</t>
+          <t>Finance expenses</t>
         </is>
       </c>
       <c r="W19" t="n">
-        <v>77000000</v>
+        <v>276000000</v>
       </c>
     </row>
     <row r="20">
@@ -1689,43 +1689,43 @@
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>Profit before tax</t>
+          <t>Income tax (expense) benefit</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>1281234000</v>
+        <v>269390000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
-          <t>Profit before tax</t>
+          <t>Income tax (expense) benefit</t>
         </is>
       </c>
       <c r="N20" t="n">
-        <v>3792000000</v>
+        <v>425000000</v>
       </c>
       <c r="P20" t="inlineStr">
         <is>
-          <t>Total finance expenses</t>
+          <t>Net finance</t>
         </is>
       </c>
       <c r="Q20" t="n">
-        <v>279000000</v>
+        <v>-250000000</v>
       </c>
       <c r="S20" t="inlineStr">
         <is>
-          <t>Total finance expenses</t>
+          <t>Net finance</t>
         </is>
       </c>
       <c r="T20" t="n">
-        <v>259000000</v>
+        <v>-243000000</v>
       </c>
       <c r="V20" t="inlineStr">
         <is>
-          <t>Finance expenses</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="W20" t="n">
-        <v>276000000</v>
+        <v>-241000000</v>
       </c>
     </row>
     <row r="21">
@@ -1739,49 +1739,49 @@
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>Income tax (expense) benefit</t>
+          <t>Profit after tax</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>269390000</v>
+        <v>1011844000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
-          <t>Income tax (expense) benefit</t>
+          <t>Profit after tax</t>
         </is>
       </c>
       <c r="N21" t="n">
-        <v>425000000</v>
+        <v>3367000000</v>
       </c>
       <c r="P21" t="inlineStr">
         <is>
-          <t>Net finance</t>
+          <t>Profit before tax</t>
         </is>
       </c>
       <c r="Q21" t="n">
-        <v>-250000000</v>
+        <v>1134000000</v>
       </c>
       <c r="S21" t="inlineStr">
         <is>
-          <t>Net finance</t>
+          <t>Profit before tax</t>
         </is>
       </c>
       <c r="T21" t="n">
-        <v>-243000000</v>
+        <v>584000000</v>
       </c>
       <c r="V21" t="inlineStr">
         <is>
-          <t>Foreign exchange gains (losses)</t>
+          <t>Total finance expenses</t>
         </is>
       </c>
       <c r="W21" t="n">
-        <v>-241000000</v>
+        <v>35000000</v>
       </c>
     </row>
     <row r="22">
       <c r="J22" t="inlineStr">
         <is>
-          <t>Profit after tax</t>
+          <t>Annual profit</t>
         </is>
       </c>
       <c r="K22" t="n">
@@ -1789,7 +1789,7 @@
       </c>
       <c r="M22" t="inlineStr">
         <is>
-          <t>Profit after tax</t>
+          <t>Annual profit</t>
         </is>
       </c>
       <c r="N22" t="n">
@@ -1797,75 +1797,59 @@
       </c>
       <c r="P22" t="inlineStr">
         <is>
+          <t>Income tax (expense) benefit</t>
+        </is>
+      </c>
+      <c r="Q22" t="n">
+        <v>237000000</v>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Income tax (expense) benefit</t>
+        </is>
+      </c>
+      <c r="T22" t="n">
+        <v>306000000</v>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>Net finance</t>
+        </is>
+      </c>
+      <c r="W22" t="n">
+        <v>42000000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>Profit after tax</t>
+        </is>
+      </c>
+      <c r="Q23" t="n">
+        <v>897000000</v>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>Profit after tax</t>
+        </is>
+      </c>
+      <c r="T23" t="n">
+        <v>278000000</v>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
           <t>Profit before tax</t>
         </is>
       </c>
-      <c r="Q22" t="n">
-        <v>1134000000</v>
-      </c>
-      <c r="S22" t="inlineStr">
-        <is>
-          <t>Profit before tax</t>
-        </is>
-      </c>
-      <c r="T22" t="n">
-        <v>584000000</v>
-      </c>
-      <c r="V22" t="inlineStr">
-        <is>
-          <t>Total finance expenses</t>
-        </is>
-      </c>
-      <c r="W22" t="n">
-        <v>35000000</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="J23" t="inlineStr">
-        <is>
-          <t>Annual profit</t>
-        </is>
-      </c>
-      <c r="K23" t="n">
-        <v>1011844000</v>
-      </c>
-      <c r="M23" t="inlineStr">
-        <is>
-          <t>Annual profit</t>
-        </is>
-      </c>
-      <c r="N23" t="n">
-        <v>3367000000</v>
-      </c>
-      <c r="P23" t="inlineStr">
-        <is>
-          <t>Income tax (expense) benefit</t>
-        </is>
-      </c>
-      <c r="Q23" t="n">
-        <v>237000000</v>
-      </c>
-      <c r="S23" t="inlineStr">
-        <is>
-          <t>Income tax (expense) benefit</t>
-        </is>
-      </c>
-      <c r="T23" t="n">
-        <v>306000000</v>
-      </c>
-      <c r="V23" t="inlineStr">
-        <is>
-          <t>Net finance</t>
-        </is>
-      </c>
       <c r="W23" t="n">
-        <v>42000000</v>
+        <v>5827000000</v>
       </c>
     </row>
     <row r="24">
       <c r="P24" t="inlineStr">
         <is>
-          <t>Profit after tax</t>
+          <t>Annual profit</t>
         </is>
       </c>
       <c r="Q24" t="n">
@@ -1873,7 +1857,7 @@
       </c>
       <c r="S24" t="inlineStr">
         <is>
-          <t>Profit after tax</t>
+          <t>Annual profit</t>
         </is>
       </c>
       <c r="T24" t="n">
@@ -1881,56 +1865,30 @@
       </c>
       <c r="V24" t="inlineStr">
         <is>
-          <t>Profit before tax</t>
+          <t>Income tax (expense) benefit</t>
         </is>
       </c>
       <c r="W24" t="n">
-        <v>5827000000</v>
+        <v>1163000000</v>
       </c>
     </row>
     <row r="25">
-      <c r="P25" t="inlineStr">
-        <is>
-          <t>Annual profit</t>
-        </is>
-      </c>
-      <c r="Q25" t="n">
-        <v>897000000</v>
-      </c>
-      <c r="S25" t="inlineStr">
-        <is>
-          <t>Annual profit</t>
-        </is>
-      </c>
-      <c r="T25" t="n">
-        <v>278000000</v>
-      </c>
       <c r="V25" t="inlineStr">
         <is>
-          <t>Income tax (expense) benefit</t>
+          <t>Profit after tax</t>
         </is>
       </c>
       <c r="W25" t="n">
-        <v>1163000000</v>
+        <v>4664000000</v>
       </c>
     </row>
     <row r="26">
       <c r="V26" t="inlineStr">
         <is>
-          <t>Profit after tax</t>
+          <t>Annual profit</t>
         </is>
       </c>
       <c r="W26" t="n">
-        <v>4664000000</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="V27" t="inlineStr">
-        <is>
-          <t>Annual profit</t>
-        </is>
-      </c>
-      <c r="W27" t="n">
         <v>4664000000</v>
       </c>
     </row>
@@ -2344,35 +2302,35 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Total tangible fixed assets</t>
+          <t>Property, plant and equipment</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3294636000</v>
+        <v>2040947000</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Total tangible fixed assets</t>
+          <t>Property, plant and equipment</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>5602208000</v>
+        <v>3403958000</v>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Total tangible fixed assets</t>
+          <t>Property, plant and equipment</t>
         </is>
       </c>
       <c r="H7" t="n">
-        <v>5909087000</v>
+        <v>3754746000</v>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Total tangible fixed assets</t>
+          <t>Property, plant and equipment</t>
         </is>
       </c>
       <c r="K7" t="n">
-        <v>6568934000</v>
+        <v>3775761000</v>
       </c>
       <c r="M7" t="inlineStr">
         <is>
@@ -2410,35 +2368,35 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Financial fixed assets</t>
+          <t>Total tangible fixed assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>3100763000</v>
+        <v>3294636000</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Financial fixed assets</t>
+          <t>Total tangible fixed assets</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>5183162000</v>
+        <v>5602208000</v>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Financial fixed assets</t>
+          <t>Total tangible fixed assets</t>
         </is>
       </c>
       <c r="H8" t="n">
-        <v>5602208000</v>
+        <v>5909087000</v>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Financial fixed assets</t>
+          <t>Total tangible fixed assets</t>
         </is>
       </c>
       <c r="K8" t="n">
-        <v>5909087000</v>
+        <v>6568934000</v>
       </c>
       <c r="M8" t="inlineStr">
         <is>
@@ -2476,35 +2434,35 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total financial fixed assets</t>
+          <t>Financial fixed assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>2666156000</v>
+        <v>3100763000</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Total financial fixed assets</t>
+          <t>Financial fixed assets</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>421228000</v>
+        <v>5183162000</v>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Total financial fixed assets</t>
+          <t>Financial fixed assets</t>
         </is>
       </c>
       <c r="H9" t="n">
-        <v>699352000</v>
+        <v>5602208000</v>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Total financial fixed assets</t>
+          <t>Financial fixed assets</t>
         </is>
       </c>
       <c r="K9" t="n">
-        <v>686027000</v>
+        <v>5909087000</v>
       </c>
       <c r="M9" t="inlineStr">
         <is>
@@ -2542,35 +2500,35 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Total fixed assets</t>
+          <t>Total financial fixed assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>6603292000</v>
+        <v>2666156000</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Total fixed assets</t>
+          <t>Total financial fixed assets</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>7234986000</v>
+        <v>421228000</v>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Total fixed assets</t>
+          <t>Total financial fixed assets</t>
         </is>
       </c>
       <c r="H10" t="n">
-        <v>7711445000</v>
+        <v>699352000</v>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Total fixed assets</t>
+          <t>Total financial fixed assets</t>
         </is>
       </c>
       <c r="K10" t="n">
-        <v>8390218000</v>
+        <v>686027000</v>
       </c>
       <c r="M10" t="inlineStr">
         <is>
@@ -2608,35 +2566,35 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Current assets</t>
+          <t>Total fixed assets</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>3931239000</v>
+        <v>6603292000</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Current assets</t>
+          <t>Total fixed assets</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>9163870000</v>
+        <v>7234986000</v>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Current assets</t>
+          <t>Total fixed assets</t>
         </is>
       </c>
       <c r="H11" t="n">
-        <v>7234986000</v>
+        <v>7711445000</v>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Current assets</t>
+          <t>Total fixed assets</t>
         </is>
       </c>
       <c r="K11" t="n">
-        <v>7711445000</v>
+        <v>8390218000</v>
       </c>
       <c r="M11" t="inlineStr">
         <is>
@@ -2674,35 +2632,35 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Current assets</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>2086604000</v>
+        <v>3931239000</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Current assets</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3302196000</v>
+        <v>9163870000</v>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Current assets</t>
         </is>
       </c>
       <c r="H12" t="n">
-        <v>3339415000</v>
+        <v>7234986000</v>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Current assets</t>
         </is>
       </c>
       <c r="K12" t="n">
-        <v>3561007000</v>
+        <v>7711445000</v>
       </c>
       <c r="M12" t="inlineStr">
         <is>
@@ -2740,7 +2698,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Total inventories</t>
+          <t>Inventories</t>
         </is>
       </c>
       <c r="B13" t="n">
@@ -2748,7 +2706,7 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Total inventories</t>
+          <t>Inventories</t>
         </is>
       </c>
       <c r="E13" t="n">
@@ -2756,7 +2714,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Total inventories</t>
+          <t>Inventories</t>
         </is>
       </c>
       <c r="H13" t="n">
@@ -2764,7 +2722,7 @@
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Total inventories</t>
+          <t>Inventories</t>
         </is>
       </c>
       <c r="K13" t="n">
@@ -2806,35 +2764,35 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Total inventories</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1715245000</v>
+        <v>2086604000</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Total inventories</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>2896478000</v>
+        <v>3302196000</v>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Total inventories</t>
         </is>
       </c>
       <c r="H14" t="n">
-        <v>3302196000</v>
+        <v>3339415000</v>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Total inventories</t>
         </is>
       </c>
       <c r="K14" t="n">
-        <v>3339415000</v>
+        <v>3561007000</v>
       </c>
       <c r="M14" t="inlineStr">
         <is>
@@ -2872,35 +2830,35 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Trade receivables</t>
+          <t>Receivables</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1275377000</v>
+        <v>1715245000</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Trade receivables</t>
+          <t>Receivables</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1864010000</v>
+        <v>2896478000</v>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Trade receivables</t>
+          <t>Receivables</t>
         </is>
       </c>
       <c r="H15" t="n">
-        <v>1870770000</v>
+        <v>3302196000</v>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Trade receivables</t>
+          <t>Receivables</t>
         </is>
       </c>
       <c r="K15" t="n">
-        <v>2264479000</v>
+        <v>3339415000</v>
       </c>
       <c r="M15" t="inlineStr">
         <is>
@@ -2938,35 +2896,35 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Total receivables</t>
+          <t>Trade receivables</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1788642000</v>
+        <v>1275377000</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Total receivables</t>
+          <t>Trade receivables</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>2619747000</v>
+        <v>1864010000</v>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>Total receivables</t>
+          <t>Trade receivables</t>
         </is>
       </c>
       <c r="H16" t="n">
-        <v>2475426000</v>
+        <v>1870770000</v>
       </c>
       <c r="J16" t="inlineStr">
         <is>
-          <t>Total receivables</t>
+          <t>Trade receivables</t>
         </is>
       </c>
       <c r="K16" t="n">
-        <v>2870074000</v>
+        <v>2264479000</v>
       </c>
       <c r="M16" t="inlineStr">
         <is>
@@ -3004,35 +2962,35 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Total receivables</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>546114000</v>
+        <v>1788642000</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Total receivables</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>1305592000</v>
+        <v>2619747000</v>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Total receivables</t>
         </is>
       </c>
       <c r="H17" t="n">
-        <v>1230668000</v>
+        <v>2475426000</v>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Total receivables</t>
         </is>
       </c>
       <c r="K17" t="n">
-        <v>1493279000</v>
+        <v>2870074000</v>
       </c>
       <c r="M17" t="inlineStr">
         <is>
@@ -3070,7 +3028,7 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total cash and cash equivalents</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="B18" t="n">
@@ -3078,7 +3036,7 @@
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>Total cash and cash equivalents</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="E18" t="n">
@@ -3086,7 +3044,7 @@
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>Total cash and cash equivalents</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="H18" t="n">
@@ -3094,7 +3052,7 @@
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Total cash and cash equivalents</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="K18" t="n">
@@ -3136,35 +3094,35 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Total cash and cash equivalents</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>4421360000</v>
+        <v>546114000</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Total cash and cash equivalents</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>7241867000</v>
+        <v>1305592000</v>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Total cash and cash equivalents</t>
         </is>
       </c>
       <c r="H19" t="n">
-        <v>7101897000</v>
+        <v>1230668000</v>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Total cash and cash equivalents</t>
         </is>
       </c>
       <c r="K19" t="n">
-        <v>7957717000</v>
+        <v>1493279000</v>
       </c>
       <c r="M19" t="inlineStr">
         <is>
@@ -3202,35 +3160,35 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>TOTAL ASSETS</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11024652000</v>
+        <v>4421360000</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>TOTAL ASSETS</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>14476853000</v>
+        <v>7241867000</v>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>TOTAL ASSETS</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="H20" t="n">
-        <v>14813342000</v>
+        <v>7101897000</v>
       </c>
       <c r="J20" t="inlineStr">
         <is>
-          <t>TOTAL ASSETS</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="K20" t="n">
-        <v>16347935000</v>
+        <v>7957717000</v>
       </c>
       <c r="M20" t="inlineStr">
         <is>
@@ -3268,35 +3226,35 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>BALANCE - EQUITY AND LIABILITIES</t>
+          <t>TOTAL ASSETS</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>11668099000</v>
+        <v>11024652000</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>BALANCE - EQUITY AND LIABILITIES</t>
+          <t>TOTAL ASSETS</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>15453419000</v>
+        <v>14476853000</v>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>BALANCE - EQUITY AND LIABILITIES</t>
+          <t>TOTAL ASSETS</t>
         </is>
       </c>
       <c r="H21" t="n">
-        <v>14476853000</v>
+        <v>14813342000</v>
       </c>
       <c r="J21" t="inlineStr">
         <is>
-          <t>BALANCE - EQUITY AND LIABILITIES</t>
+          <t>TOTAL ASSETS</t>
         </is>
       </c>
       <c r="K21" t="n">
-        <v>14813342000</v>
+        <v>16347935000</v>
       </c>
       <c r="M21" t="inlineStr">
         <is>
@@ -3334,35 +3292,35 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Total contributed equity</t>
+          <t>BALANCE - EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>6055203000</v>
+        <v>11668099000</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Total contributed equity</t>
+          <t>BALANCE - EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>3088203000</v>
+        <v>15453419000</v>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>Total contributed equity</t>
+          <t>BALANCE - EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="H22" t="n">
-        <v>3088203000</v>
+        <v>14476853000</v>
       </c>
       <c r="J22" t="inlineStr">
         <is>
-          <t>Total contributed equity</t>
+          <t>BALANCE - EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="K22" t="n">
-        <v>2918203000</v>
+        <v>14813342000</v>
       </c>
       <c r="M22" t="inlineStr">
         <is>
@@ -3400,23 +3358,23 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total contributed equity</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>5503413000</v>
+        <v>6055203000</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total contributed equity</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>6055203000</v>
+        <v>3088203000</v>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total contributed equity</t>
         </is>
       </c>
       <c r="H23" t="n">
@@ -3424,11 +3382,11 @@
       </c>
       <c r="J23" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total contributed equity</t>
         </is>
       </c>
       <c r="K23" t="n">
-        <v>3088203000</v>
+        <v>2918203000</v>
       </c>
       <c r="M23" t="inlineStr">
         <is>
@@ -3466,35 +3424,35 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Total retained earnings</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>2702240000</v>
+        <v>5503413000</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Total retained earnings</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>3107336000</v>
+        <v>6055203000</v>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Total retained earnings</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="H24" t="n">
-        <v>4370839000</v>
+        <v>3088203000</v>
       </c>
       <c r="J24" t="inlineStr">
         <is>
-          <t>Total retained earnings</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="K24" t="n">
-        <v>5313102000</v>
+        <v>3088203000</v>
       </c>
       <c r="M24" t="inlineStr">
         <is>
@@ -3532,35 +3490,35 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Total equity</t>
+          <t>Total retained earnings</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>8757443000</v>
+        <v>2702240000</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Total equity</t>
+          <t>Total retained earnings</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>6318758000</v>
+        <v>3107336000</v>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Total equity</t>
+          <t>Total retained earnings</t>
         </is>
       </c>
       <c r="H25" t="n">
-        <v>7459042000</v>
+        <v>4370839000</v>
       </c>
       <c r="J25" t="inlineStr">
         <is>
-          <t>Total equity</t>
+          <t>Total retained earnings</t>
         </is>
       </c>
       <c r="K25" t="n">
-        <v>8332862000</v>
+        <v>5313102000</v>
       </c>
       <c r="M25" t="inlineStr">
         <is>
@@ -3598,35 +3556,35 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>Total equity</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>7697399000</v>
+        <v>8757443000</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>Total equity</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>5675417000</v>
+        <v>6318758000</v>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>Total equity</t>
         </is>
       </c>
       <c r="H26" t="n">
-        <v>6167047000</v>
+        <v>7459042000</v>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>Total equity</t>
         </is>
       </c>
       <c r="K26" t="n">
-        <v>7459042000</v>
+        <v>8332862000</v>
       </c>
       <c r="M26" t="inlineStr">
         <is>
@@ -3664,35 +3622,35 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Deferred tax</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>56595000</v>
+        <v>7697399000</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Deferred tax</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>175046000</v>
+        <v>5675417000</v>
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Deferred tax</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="H27" t="n">
-        <v>114182000</v>
+        <v>6167047000</v>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Deferred tax</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="K27" t="n">
-        <v>104587000</v>
+        <v>7459042000</v>
       </c>
       <c r="M27" t="inlineStr">
         <is>
@@ -3730,35 +3688,35 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Total provisions for liabilities</t>
+          <t>Deferred tax</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>671288000</v>
+        <v>56595000</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Total provisions for liabilities</t>
+          <t>Deferred tax</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1554536000</v>
+        <v>175046000</v>
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Total provisions for liabilities</t>
+          <t>Deferred tax</t>
         </is>
       </c>
       <c r="H28" t="n">
-        <v>1564361000</v>
+        <v>114182000</v>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Total provisions for liabilities</t>
+          <t>Deferred tax</t>
         </is>
       </c>
       <c r="K28" t="n">
-        <v>1318208000</v>
+        <v>104587000</v>
       </c>
       <c r="M28" t="inlineStr">
         <is>
@@ -3796,35 +3754,35 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Other long-term debt</t>
+          <t>Total provisions for liabilities</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>14520000</v>
+        <v>671288000</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Other long-term debt</t>
+          <t>Total provisions for liabilities</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>3051916000</v>
+        <v>1554536000</v>
       </c>
       <c r="G29" t="inlineStr">
         <is>
-          <t>Other long-term debt</t>
+          <t>Total provisions for liabilities</t>
         </is>
       </c>
       <c r="H29" t="n">
-        <v>2834859000</v>
+        <v>1564361000</v>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Other long-term debt</t>
+          <t>Total provisions for liabilities</t>
         </is>
       </c>
       <c r="K29" t="n">
-        <v>1564361000</v>
+        <v>1318208000</v>
       </c>
       <c r="M29" t="inlineStr">
         <is>
@@ -3862,7 +3820,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total other long-term debt</t>
+          <t>Other long-term debt</t>
         </is>
       </c>
       <c r="B30" t="n">
@@ -3870,7 +3828,7 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Total other long-term debt</t>
+          <t>Other long-term debt</t>
         </is>
       </c>
       <c r="E30" t="n">
@@ -3878,7 +3836,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Total other long-term debt</t>
+          <t>Other long-term debt</t>
         </is>
       </c>
       <c r="H30" t="n">
@@ -3886,11 +3844,11 @@
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Total other long-term debt</t>
+          <t>Other long-term debt</t>
         </is>
       </c>
       <c r="K30" t="n">
-        <v>2681975000</v>
+        <v>1564361000</v>
       </c>
       <c r="M30" t="inlineStr">
         <is>
@@ -3928,35 +3886,35 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total other long-term debt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>685808000</v>
+        <v>14520000</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total other long-term debt</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4606452000</v>
+        <v>3051916000</v>
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total other long-term debt</t>
         </is>
       </c>
       <c r="H31" t="n">
-        <v>4399220000</v>
+        <v>2834859000</v>
       </c>
       <c r="J31" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total other long-term debt</t>
         </is>
       </c>
       <c r="K31" t="n">
-        <v>4000183000</v>
+        <v>2681975000</v>
       </c>
       <c r="M31" t="inlineStr">
         <is>
@@ -3994,35 +3952,35 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Short-term debt</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>498054000</v>
+        <v>685808000</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Short-term debt</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>2588809000</v>
+        <v>4606452000</v>
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="H32" t="n">
-        <v>1527587000</v>
+        <v>4399220000</v>
       </c>
       <c r="J32" t="inlineStr">
         <is>
-          <t>Short-term debt</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="K32" t="n">
-        <v>4399220000</v>
+        <v>4000183000</v>
       </c>
       <c r="M32" t="inlineStr">
         <is>
@@ -4060,35 +4018,35 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
+          <t>Short-term debt</t>
+        </is>
+      </c>
+      <c r="B33" t="n">
+        <v>498054000</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Short-term debt</t>
+        </is>
+      </c>
+      <c r="E33" t="n">
+        <v>2588809000</v>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>Accounts payable</t>
         </is>
       </c>
-      <c r="B33" t="n">
-        <v>831317000</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Accounts payable</t>
-        </is>
-      </c>
-      <c r="E33" t="n">
-        <v>1448578000</v>
-      </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>Total short-term debt</t>
-        </is>
-      </c>
       <c r="H33" t="n">
-        <v>2955080000</v>
+        <v>1527587000</v>
       </c>
       <c r="J33" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Short-term debt</t>
         </is>
       </c>
       <c r="K33" t="n">
-        <v>1836888000</v>
+        <v>4399220000</v>
       </c>
       <c r="M33" t="inlineStr">
         <is>
@@ -4126,35 +4084,35 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="B34" t="n">
+        <v>831317000</v>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Accounts payable</t>
+        </is>
+      </c>
+      <c r="E34" t="n">
+        <v>1448578000</v>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>Total short-term debt</t>
         </is>
       </c>
-      <c r="B34" t="n">
-        <v>1581401000</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Total short-term debt</t>
-        </is>
-      </c>
-      <c r="E34" t="n">
-        <v>3551643000</v>
-      </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>Total debt</t>
-        </is>
-      </c>
       <c r="H34" t="n">
-        <v>7354300000</v>
+        <v>2955080000</v>
       </c>
       <c r="J34" t="inlineStr">
         <is>
-          <t>Total short-term debt</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="K34" t="n">
-        <v>4014890000</v>
+        <v>1836888000</v>
       </c>
       <c r="M34" t="inlineStr">
         <is>
@@ -4192,35 +4150,35 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
+          <t>Total short-term debt</t>
+        </is>
+      </c>
+      <c r="B35" t="n">
+        <v>1581401000</v>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Total short-term debt</t>
+        </is>
+      </c>
+      <c r="E35" t="n">
+        <v>3551643000</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Total debt</t>
         </is>
       </c>
-      <c r="B35" t="n">
-        <v>2267209000</v>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Total debt</t>
-        </is>
-      </c>
-      <c r="E35" t="n">
-        <v>8158095000</v>
-      </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>TOTAL EQUITY AND LIABILITIES</t>
-        </is>
-      </c>
       <c r="H35" t="n">
-        <v>14813342000</v>
+        <v>7354300000</v>
       </c>
       <c r="J35" t="inlineStr">
         <is>
-          <t>Total debt</t>
+          <t>Total short-term debt</t>
         </is>
       </c>
       <c r="K35" t="n">
-        <v>8015073000</v>
+        <v>4014890000</v>
       </c>
       <c r="M35" t="inlineStr">
         <is>
@@ -4258,27 +4216,35 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
+          <t>Total debt</t>
+        </is>
+      </c>
+      <c r="B36" t="n">
+        <v>2267209000</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Total debt</t>
+        </is>
+      </c>
+      <c r="E36" t="n">
+        <v>8158095000</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>TOTAL EQUITY AND LIABILITIES</t>
         </is>
       </c>
-      <c r="B36" t="n">
-        <v>11024652000</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>TOTAL EQUITY AND LIABILITIES</t>
-        </is>
-      </c>
-      <c r="E36" t="n">
-        <v>14476853000</v>
+      <c r="H36" t="n">
+        <v>14813342000</v>
       </c>
       <c r="J36" t="inlineStr">
         <is>
-          <t>TOTAL EQUITY AND LIABILITIES</t>
+          <t>Total debt</t>
         </is>
       </c>
       <c r="K36" t="n">
-        <v>16347935000</v>
+        <v>8015073000</v>
       </c>
       <c r="M36" t="inlineStr">
         <is>
@@ -4314,6 +4280,30 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
+          <t>TOTAL EQUITY AND LIABILITIES</t>
+        </is>
+      </c>
+      <c r="B37" t="n">
+        <v>11024652000</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>TOTAL EQUITY AND LIABILITIES</t>
+        </is>
+      </c>
+      <c r="E37" t="n">
+        <v>14476853000</v>
+      </c>
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>TOTAL EQUITY AND LIABILITIES</t>
+        </is>
+      </c>
+      <c r="K37" t="n">
+        <v>16347935000</v>
+      </c>
       <c r="M37" t="inlineStr">
         <is>
           <t>Short-term debt</t>
@@ -4648,7 +4638,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I26"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4794,125 +4784,125 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Expenses</t>
+          <t>Employee benefit expenses</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>7788724000</v>
+        <v>1358684000</v>
       </c>
       <c r="C5" t="n">
-        <v>12673949000</v>
+        <v>2438997000</v>
       </c>
       <c r="D5" t="n">
-        <v>14541057000</v>
+        <v>2559950000</v>
       </c>
       <c r="E5" t="n">
-        <v>14226169000</v>
+        <v>2857634000</v>
       </c>
       <c r="F5" t="n">
-        <v>21403000000</v>
+        <v>3449000000</v>
       </c>
       <c r="G5" t="n">
-        <v>25230000000</v>
+        <v>3696000000</v>
       </c>
       <c r="H5" t="n">
-        <v>22668000000</v>
+        <v>4028000000</v>
       </c>
       <c r="I5" t="n">
-        <v>24691000000</v>
+        <v>4530000000</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Employee benefit expenses</t>
+          <t>Amortisation and depreciation</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>1358684000</v>
+        <v>394347000</v>
       </c>
       <c r="C6" t="n">
-        <v>2438997000</v>
+        <v>674383000</v>
       </c>
       <c r="D6" t="n">
-        <v>2559950000</v>
+        <v>717781000</v>
       </c>
       <c r="E6" t="n">
-        <v>2857634000</v>
+        <v>776023000</v>
       </c>
       <c r="F6" t="n">
-        <v>3449000000</v>
+        <v>1263000000</v>
       </c>
       <c r="G6" t="n">
-        <v>3696000000</v>
+        <v>1456000000</v>
       </c>
       <c r="H6" t="n">
-        <v>4028000000</v>
+        <v>1710000000</v>
       </c>
       <c r="I6" t="n">
-        <v>4530000000</v>
+        <v>1816000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Amortisation and depreciation</t>
+          <t>Impairment losses</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>394347000</v>
+        <v>730000</v>
       </c>
       <c r="C7" t="n">
-        <v>674383000</v>
+        <v>1813000</v>
       </c>
       <c r="D7" t="n">
-        <v>717781000</v>
+        <v>11818000</v>
       </c>
       <c r="E7" t="n">
-        <v>776023000</v>
+        <v>16809000</v>
       </c>
       <c r="F7" t="n">
-        <v>1263000000</v>
+        <v>8000000</v>
       </c>
       <c r="G7" t="n">
-        <v>1456000000</v>
+        <v>11000000</v>
       </c>
       <c r="H7" t="n">
-        <v>1710000000</v>
+        <v>17000000</v>
       </c>
       <c r="I7" t="n">
-        <v>1816000000</v>
+        <v>76000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Impairment losses</t>
+          <t>Other operating expenses</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>730000</v>
+        <v>1982864000</v>
       </c>
       <c r="C8" t="n">
-        <v>1813000</v>
+        <v>3048051000</v>
       </c>
       <c r="D8" t="n">
-        <v>11818000</v>
+        <v>3149390000</v>
       </c>
       <c r="E8" t="n">
-        <v>16809000</v>
+        <v>3575874000</v>
       </c>
       <c r="F8" t="n">
-        <v>8000000</v>
+        <v>4622000000</v>
       </c>
       <c r="G8" t="n">
-        <v>11000000</v>
+        <v>4804000000</v>
       </c>
       <c r="H8" t="n">
-        <v>17000000</v>
+        <v>5121000000</v>
       </c>
       <c r="I8" t="n">
-        <v>76000000</v>
+        <v>5536000000</v>
       </c>
     </row>
     <row r="9">
@@ -5290,7 +5280,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Other operating expenses</t>
+          <t>Foreign exchange gains (losses)</t>
         </is>
       </c>
       <c r="B21" t="n">
@@ -5303,25 +5293,25 @@
         <v/>
       </c>
       <c r="E21" t="n">
-        <v>3575874000</v>
+        <v>7701000</v>
       </c>
       <c r="F21" t="n">
-        <v>4622000000</v>
+        <v>-19000000</v>
       </c>
       <c r="G21" t="n">
-        <v>4804000000</v>
+        <v>-16000000</v>
       </c>
       <c r="H21" t="n">
-        <v>5121000000</v>
+        <v>-19000000</v>
       </c>
       <c r="I21" t="n">
-        <v>5536000000</v>
+        <v>-241000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Foreign exchange gains (losses)</t>
+          <t>Share of profit (loss) from equity accounted companies</t>
         </is>
       </c>
       <c r="B22" t="n">
@@ -5334,25 +5324,25 @@
         <v/>
       </c>
       <c r="E22" t="n">
-        <v>7701000</v>
+        <v/>
       </c>
       <c r="F22" t="n">
-        <v>-19000000</v>
+        <v/>
       </c>
       <c r="G22" t="n">
-        <v>-16000000</v>
+        <v>31000000</v>
       </c>
       <c r="H22" t="n">
-        <v>-19000000</v>
+        <v>35000000</v>
       </c>
       <c r="I22" t="n">
-        <v>-241000000</v>
+        <v>48000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Share of profit (loss) from equity accounted companies</t>
+          <t>Other items</t>
         </is>
       </c>
       <c r="B23" t="n">
@@ -5371,19 +5361,19 @@
         <v/>
       </c>
       <c r="G23" t="n">
-        <v>31000000</v>
+        <v>-195000000</v>
       </c>
       <c r="H23" t="n">
-        <v>35000000</v>
+        <v>130000000</v>
       </c>
       <c r="I23" t="n">
-        <v>48000000</v>
+        <v>113000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Other items</t>
+          <t>Raw materials and energy for production</t>
         </is>
       </c>
       <c r="B24" t="n">
@@ -5402,19 +5392,19 @@
         <v/>
       </c>
       <c r="G24" t="n">
-        <v>-195000000</v>
+        <v/>
       </c>
       <c r="H24" t="n">
-        <v>130000000</v>
+        <v/>
       </c>
       <c r="I24" t="n">
-        <v>113000000</v>
+        <v>15861000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Raw materials and energy for production</t>
+          <t>Share of profit (loss) from equity accounted financial investments</t>
         </is>
       </c>
       <c r="B25" t="n">
@@ -5439,37 +5429,6 @@
         <v/>
       </c>
       <c r="I25" t="n">
-        <v>15861000000</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="A26" t="inlineStr">
-        <is>
-          <t>Share of profit (loss) from equity accounted financial investments</t>
-        </is>
-      </c>
-      <c r="B26" t="n">
-        <v/>
-      </c>
-      <c r="C26" t="n">
-        <v/>
-      </c>
-      <c r="D26" t="n">
-        <v/>
-      </c>
-      <c r="E26" t="n">
-        <v/>
-      </c>
-      <c r="F26" t="n">
-        <v/>
-      </c>
-      <c r="G26" t="n">
-        <v/>
-      </c>
-      <c r="H26" t="n">
-        <v/>
-      </c>
-      <c r="I26" t="n">
         <v>37000000</v>
       </c>
     </row>
@@ -5661,193 +5620,193 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Total tangible fixed assets</t>
+          <t>Property, plant and equipment</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3294636000</v>
+        <v>2040947000</v>
       </c>
       <c r="C6" t="n">
-        <v>5602208000</v>
+        <v>3403958000</v>
       </c>
       <c r="D6" t="n">
-        <v>5909087000</v>
+        <v>3754746000</v>
       </c>
       <c r="E6" t="n">
-        <v>6568934000</v>
+        <v>3775761000</v>
       </c>
       <c r="F6" t="n">
         <v>12445000000</v>
       </c>
       <c r="G6" t="n">
-        <v>13782000000</v>
+        <v>13202000000</v>
       </c>
       <c r="H6" t="n">
-        <v>15006000000</v>
+        <v>14131000000</v>
       </c>
       <c r="I6" t="n">
-        <v>16739000000</v>
+        <v>15722000000</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Financial fixed assets</t>
+          <t>Total tangible fixed assets</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>3100763000</v>
+        <v>3294636000</v>
       </c>
       <c r="C7" t="n">
-        <v>5183162000</v>
+        <v>5602208000</v>
       </c>
       <c r="D7" t="n">
-        <v>5602208000</v>
+        <v>5909087000</v>
       </c>
       <c r="E7" t="n">
-        <v>5909087000</v>
+        <v>6568934000</v>
       </c>
       <c r="F7" t="n">
-        <v>11950000000</v>
+        <v>12445000000</v>
       </c>
       <c r="G7" t="n">
-        <v>12445000000</v>
+        <v>13782000000</v>
       </c>
       <c r="H7" t="n">
-        <v>13782000000</v>
+        <v>15006000000</v>
       </c>
       <c r="I7" t="n">
-        <v>15006000000</v>
+        <v>16739000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Total financial fixed assets</t>
+          <t>Financial fixed assets</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>2666156000</v>
+        <v>3100763000</v>
       </c>
       <c r="C8" t="n">
-        <v>421228000</v>
+        <v>5183162000</v>
       </c>
       <c r="D8" t="n">
-        <v>699352000</v>
+        <v>5602208000</v>
       </c>
       <c r="E8" t="n">
-        <v>686027000</v>
+        <v>5909087000</v>
       </c>
       <c r="F8" t="n">
-        <v>705000000</v>
+        <v>11950000000</v>
       </c>
       <c r="G8" t="n">
-        <v>601000000</v>
+        <v>12445000000</v>
       </c>
       <c r="H8" t="n">
-        <v>675000000</v>
+        <v>13782000000</v>
       </c>
       <c r="I8" t="n">
-        <v>1023000000</v>
+        <v>15006000000</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Total fixed assets</t>
+          <t>Total financial fixed assets</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>6603292000</v>
+        <v>2666156000</v>
       </c>
       <c r="C9" t="n">
-        <v>7234986000</v>
+        <v>421228000</v>
       </c>
       <c r="D9" t="n">
-        <v>7711445000</v>
+        <v>699352000</v>
       </c>
       <c r="E9" t="n">
-        <v>8390218000</v>
+        <v>686027000</v>
       </c>
       <c r="F9" t="n">
-        <v>14474000000</v>
+        <v>705000000</v>
       </c>
       <c r="G9" t="n">
-        <v>15692000000</v>
+        <v>601000000</v>
       </c>
       <c r="H9" t="n">
-        <v>18015000000</v>
+        <v>675000000</v>
       </c>
       <c r="I9" t="n">
-        <v>20353000000</v>
+        <v>1023000000</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Current assets</t>
+          <t>Total fixed assets</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>3931239000</v>
+        <v>6603292000</v>
       </c>
       <c r="C10" t="n">
-        <v>9163870000</v>
+        <v>7234986000</v>
       </c>
       <c r="D10" t="n">
-        <v>7234986000</v>
+        <v>7711445000</v>
       </c>
       <c r="E10" t="n">
-        <v>7711445000</v>
+        <v>8390218000</v>
       </c>
       <c r="F10" t="n">
-        <v>13995000000</v>
+        <v>14474000000</v>
       </c>
       <c r="G10" t="n">
-        <v>14474000000</v>
+        <v>15692000000</v>
       </c>
       <c r="H10" t="n">
-        <v>15692000000</v>
+        <v>18015000000</v>
       </c>
       <c r="I10" t="n">
-        <v>18014000000</v>
+        <v>20353000000</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Inventories</t>
+          <t>Current assets</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2086604000</v>
+        <v>3931239000</v>
       </c>
       <c r="C11" t="n">
-        <v>3302196000</v>
+        <v>9163870000</v>
       </c>
       <c r="D11" t="n">
-        <v>3339415000</v>
+        <v>7234986000</v>
       </c>
       <c r="E11" t="n">
-        <v>3561007000</v>
+        <v>7711445000</v>
       </c>
       <c r="F11" t="n">
-        <v>5467000000</v>
+        <v>13995000000</v>
       </c>
       <c r="G11" t="n">
-        <v>5224000000</v>
+        <v>14474000000</v>
       </c>
       <c r="H11" t="n">
-        <v>5241000000</v>
+        <v>15692000000</v>
       </c>
       <c r="I11" t="n">
-        <v>7716000000</v>
+        <v>18014000000</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Total inventories</t>
+          <t>Inventories</t>
         </is>
       </c>
       <c r="B12" t="n">
@@ -5878,131 +5837,131 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Receivables</t>
+          <t>Total inventories</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1715245000</v>
+        <v>2086604000</v>
       </c>
       <c r="C13" t="n">
-        <v>2896478000</v>
+        <v>3302196000</v>
       </c>
       <c r="D13" t="n">
-        <v>3302196000</v>
+        <v>3339415000</v>
       </c>
       <c r="E13" t="n">
-        <v>3339415000</v>
+        <v>3561007000</v>
       </c>
       <c r="F13" t="n">
-        <v>4099000000</v>
+        <v>5467000000</v>
       </c>
       <c r="G13" t="n">
-        <v>5467000000</v>
+        <v>5224000000</v>
       </c>
       <c r="H13" t="n">
-        <v>5224000000</v>
+        <v>5241000000</v>
       </c>
       <c r="I13" t="n">
-        <v>5241000000</v>
+        <v>7716000000</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Trade receivables</t>
+          <t>Receivables</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1275377000</v>
+        <v>1715245000</v>
       </c>
       <c r="C14" t="n">
-        <v>1864010000</v>
+        <v>2896478000</v>
       </c>
       <c r="D14" t="n">
-        <v>1870770000</v>
+        <v>3302196000</v>
       </c>
       <c r="E14" t="n">
-        <v>2264479000</v>
+        <v>3339415000</v>
       </c>
       <c r="F14" t="n">
-        <v>2391000000</v>
+        <v>4099000000</v>
       </c>
       <c r="G14" t="n">
-        <v>2269000000</v>
+        <v>5467000000</v>
       </c>
       <c r="H14" t="n">
-        <v>2796000000</v>
+        <v>5224000000</v>
       </c>
       <c r="I14" t="n">
-        <v>4297000000</v>
+        <v>5241000000</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Total receivables</t>
+          <t>Trade receivables</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>1788642000</v>
+        <v>1275377000</v>
       </c>
       <c r="C15" t="n">
-        <v>2619747000</v>
+        <v>1864010000</v>
       </c>
       <c r="D15" t="n">
-        <v>2475426000</v>
+        <v>1870770000</v>
       </c>
       <c r="E15" t="n">
-        <v>2870074000</v>
+        <v>2264479000</v>
       </c>
       <c r="F15" t="n">
-        <v>3227000000</v>
+        <v>2391000000</v>
       </c>
       <c r="G15" t="n">
-        <v>3283000000</v>
+        <v>2269000000</v>
       </c>
       <c r="H15" t="n">
-        <v>4478000000</v>
+        <v>2796000000</v>
       </c>
       <c r="I15" t="n">
-        <v>6132000000</v>
+        <v>4297000000</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Cash and cash equivalents</t>
+          <t>Total receivables</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>546114000</v>
+        <v>1788642000</v>
       </c>
       <c r="C16" t="n">
-        <v>1305592000</v>
+        <v>2619747000</v>
       </c>
       <c r="D16" t="n">
-        <v>1230668000</v>
+        <v>2475426000</v>
       </c>
       <c r="E16" t="n">
-        <v>1493279000</v>
+        <v>2870074000</v>
       </c>
       <c r="F16" t="n">
-        <v>7081000000</v>
+        <v>3227000000</v>
       </c>
       <c r="G16" t="n">
-        <v>4496000000</v>
+        <v>3283000000</v>
       </c>
       <c r="H16" t="n">
-        <v>3154000000</v>
+        <v>4478000000</v>
       </c>
       <c r="I16" t="n">
-        <v>7040000000</v>
+        <v>6132000000</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Total cash and cash equivalents</t>
+          <t>Cash and cash equivalents</t>
         </is>
       </c>
       <c r="B17" t="n">
@@ -6018,363 +5977,363 @@
         <v>1493279000</v>
       </c>
       <c r="F17" t="n">
-        <v>7658000000</v>
+        <v>7081000000</v>
       </c>
       <c r="G17" t="n">
-        <v>4767000000</v>
+        <v>4496000000</v>
       </c>
       <c r="H17" t="n">
         <v>3154000000</v>
       </c>
       <c r="I17" t="n">
-        <v>7649000000</v>
+        <v>7040000000</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Total current assets</t>
+          <t>Total cash and cash equivalents</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>4421360000</v>
+        <v>546114000</v>
       </c>
       <c r="C18" t="n">
-        <v>7241867000</v>
+        <v>1305592000</v>
       </c>
       <c r="D18" t="n">
-        <v>7101897000</v>
+        <v>1230668000</v>
       </c>
       <c r="E18" t="n">
-        <v>7957717000</v>
+        <v>1493279000</v>
       </c>
       <c r="F18" t="n">
-        <v>16655000000</v>
+        <v>7658000000</v>
       </c>
       <c r="G18" t="n">
-        <v>13312000000</v>
+        <v>4767000000</v>
       </c>
       <c r="H18" t="n">
-        <v>12873000000</v>
+        <v>3154000000</v>
       </c>
       <c r="I18" t="n">
-        <v>21497000000</v>
+        <v>7649000000</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>TOTAL ASSETS</t>
+          <t>Total current assets</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>11024652000</v>
+        <v>4421360000</v>
       </c>
       <c r="C19" t="n">
-        <v>14476853000</v>
+        <v>7241867000</v>
       </c>
       <c r="D19" t="n">
-        <v>14813342000</v>
+        <v>7101897000</v>
       </c>
       <c r="E19" t="n">
-        <v>16347935000</v>
+        <v>7957717000</v>
       </c>
       <c r="F19" t="n">
-        <v>31129000000</v>
+        <v>16655000000</v>
       </c>
       <c r="G19" t="n">
-        <v>29004000000</v>
+        <v>13312000000</v>
       </c>
       <c r="H19" t="n">
-        <v>30888000000</v>
+        <v>12873000000</v>
       </c>
       <c r="I19" t="n">
-        <v>41850000000</v>
+        <v>21497000000</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>BALANCE - EQUITY AND LIABILITIES</t>
+          <t>TOTAL ASSETS</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>11668099000</v>
+        <v>11024652000</v>
       </c>
       <c r="C20" t="n">
-        <v>15453419000</v>
+        <v>14476853000</v>
       </c>
       <c r="D20" t="n">
-        <v>14476853000</v>
+        <v>14813342000</v>
       </c>
       <c r="E20" t="n">
-        <v>14813342000</v>
+        <v>16347935000</v>
       </c>
       <c r="F20" t="n">
-        <v>25507000000</v>
+        <v>31129000000</v>
       </c>
       <c r="G20" t="n">
-        <v>31129000000</v>
+        <v>29004000000</v>
       </c>
       <c r="H20" t="n">
-        <v>29004000000</v>
+        <v>30888000000</v>
       </c>
       <c r="I20" t="n">
-        <v>30888000000</v>
+        <v>41850000000</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Total contributed equity</t>
+          <t>BALANCE - EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>6055203000</v>
+        <v>11668099000</v>
       </c>
       <c r="C21" t="n">
-        <v>3088203000</v>
+        <v>15453419000</v>
       </c>
       <c r="D21" t="n">
-        <v>3088203000</v>
+        <v>14476853000</v>
       </c>
       <c r="E21" t="n">
-        <v>2918203000</v>
+        <v>14813342000</v>
       </c>
       <c r="F21" t="n">
-        <v>8102000000</v>
+        <v>25507000000</v>
       </c>
       <c r="G21" t="n">
-        <v>6616000000</v>
+        <v>31129000000</v>
       </c>
       <c r="H21" t="n">
-        <v>6296000000</v>
+        <v>29004000000</v>
       </c>
       <c r="I21" t="n">
-        <v>8097000000</v>
+        <v>30888000000</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Retained earnings</t>
+          <t>Total contributed equity</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>5503413000</v>
+        <v>6055203000</v>
       </c>
       <c r="C22" t="n">
-        <v>6055203000</v>
+        <v>3088203000</v>
       </c>
       <c r="D22" t="n">
         <v>3088203000</v>
       </c>
       <c r="E22" t="n">
-        <v>3088203000</v>
+        <v>2918203000</v>
       </c>
       <c r="F22" t="n">
-        <v>2918000000</v>
+        <v>8102000000</v>
       </c>
       <c r="G22" t="n">
-        <v>8102000000</v>
+        <v>6616000000</v>
       </c>
       <c r="H22" t="n">
-        <v>6616000000</v>
+        <v>6296000000</v>
       </c>
       <c r="I22" t="n">
-        <v>11692000000</v>
+        <v>8097000000</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Total retained earnings</t>
+          <t>Retained earnings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2702240000</v>
+        <v>5503413000</v>
       </c>
       <c r="C23" t="n">
-        <v>3107336000</v>
+        <v>6055203000</v>
       </c>
       <c r="D23" t="n">
-        <v>4370839000</v>
+        <v>3088203000</v>
       </c>
       <c r="E23" t="n">
-        <v>5313102000</v>
+        <v>3088203000</v>
       </c>
       <c r="F23" t="n">
-        <v>5620000000</v>
+        <v>2918000000</v>
       </c>
       <c r="G23" t="n">
-        <v>6336000000</v>
+        <v>8102000000</v>
       </c>
       <c r="H23" t="n">
-        <v>6339000000</v>
+        <v>6616000000</v>
       </c>
       <c r="I23" t="n">
-        <v>11778000000</v>
+        <v>11692000000</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Total equity</t>
+          <t>Total retained earnings</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>8757443000</v>
+        <v>2702240000</v>
       </c>
       <c r="C24" t="n">
-        <v>6318758000</v>
+        <v>3107336000</v>
       </c>
       <c r="D24" t="n">
-        <v>7459042000</v>
+        <v>4370839000</v>
       </c>
       <c r="E24" t="n">
-        <v>8332862000</v>
+        <v>5313102000</v>
       </c>
       <c r="F24" t="n">
-        <v>13722000000</v>
+        <v>5620000000</v>
       </c>
       <c r="G24" t="n">
-        <v>12952000000</v>
+        <v>6336000000</v>
       </c>
       <c r="H24" t="n">
-        <v>12635000000</v>
+        <v>6339000000</v>
       </c>
       <c r="I24" t="n">
-        <v>19875000000</v>
+        <v>11778000000</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Debt</t>
+          <t>Total equity</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>7697399000</v>
+        <v>8757443000</v>
       </c>
       <c r="C25" t="n">
-        <v>5675417000</v>
+        <v>6318758000</v>
       </c>
       <c r="D25" t="n">
-        <v>6167047000</v>
+        <v>7459042000</v>
       </c>
       <c r="E25" t="n">
-        <v>7459042000</v>
+        <v>8332862000</v>
       </c>
       <c r="F25" t="n">
-        <v>8565000000</v>
+        <v>13722000000</v>
       </c>
       <c r="G25" t="n">
-        <v>13722000000</v>
+        <v>12952000000</v>
       </c>
       <c r="H25" t="n">
-        <v>12952000000</v>
+        <v>12635000000</v>
       </c>
       <c r="I25" t="n">
-        <v>12636000000</v>
+        <v>19875000000</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Deferred tax</t>
+          <t>Debt</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>56595000</v>
+        <v>7697399000</v>
       </c>
       <c r="C26" t="n">
-        <v>175046000</v>
+        <v>5675417000</v>
       </c>
       <c r="D26" t="n">
-        <v>114182000</v>
+        <v>6167047000</v>
       </c>
       <c r="E26" t="n">
-        <v>104587000</v>
+        <v>7459042000</v>
       </c>
       <c r="F26" t="n">
-        <v>207000000</v>
+        <v>8565000000</v>
       </c>
       <c r="G26" t="n">
-        <v>243000000</v>
+        <v>13722000000</v>
       </c>
       <c r="H26" t="n">
-        <v>336000000</v>
+        <v>12952000000</v>
       </c>
       <c r="I26" t="n">
-        <v>505000000</v>
+        <v>12636000000</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Total provisions for liabilities</t>
+          <t>Deferred tax</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>671288000</v>
+        <v>56595000</v>
       </c>
       <c r="C27" t="n">
-        <v>1554536000</v>
+        <v>175046000</v>
       </c>
       <c r="D27" t="n">
-        <v>1564361000</v>
+        <v>114182000</v>
       </c>
       <c r="E27" t="n">
-        <v>1318208000</v>
+        <v>104587000</v>
       </c>
       <c r="F27" t="n">
-        <v>1452000000</v>
+        <v>207000000</v>
       </c>
       <c r="G27" t="n">
-        <v>1196000000</v>
+        <v>243000000</v>
       </c>
       <c r="H27" t="n">
         <v>336000000</v>
       </c>
       <c r="I27" t="n">
-        <v>1316000000</v>
+        <v>505000000</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Other long-term debt</t>
+          <t>Total provisions for liabilities</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>14520000</v>
+        <v>671288000</v>
       </c>
       <c r="C28" t="n">
-        <v>3051916000</v>
+        <v>1554536000</v>
       </c>
       <c r="D28" t="n">
-        <v>2834859000</v>
+        <v>1564361000</v>
       </c>
       <c r="E28" t="n">
-        <v>1564361000</v>
+        <v>1318208000</v>
       </c>
       <c r="F28" t="n">
-        <v>1355000000</v>
+        <v>1452000000</v>
       </c>
       <c r="G28" t="n">
-        <v>1452000000</v>
+        <v>1196000000</v>
       </c>
       <c r="H28" t="n">
-        <v>243000000</v>
+        <v>336000000</v>
       </c>
       <c r="I28" t="n">
-        <v>1593000000</v>
+        <v>1316000000</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Total other long-term debt</t>
+          <t>Other long-term debt</t>
         </is>
       </c>
       <c r="B29" t="n">
@@ -6387,236 +6346,236 @@
         <v>2834859000</v>
       </c>
       <c r="E29" t="n">
-        <v>2681975000</v>
+        <v>1564361000</v>
       </c>
       <c r="F29" t="n">
-        <v>7131000000</v>
+        <v>1355000000</v>
       </c>
       <c r="G29" t="n">
-        <v>8340000000</v>
+        <v>1452000000</v>
       </c>
       <c r="H29" t="n">
-        <v>8446000000</v>
+        <v>243000000</v>
       </c>
       <c r="I29" t="n">
-        <v>8409000000</v>
+        <v>1593000000</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Total long-term debt</t>
+          <t>Total other long-term debt</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>685808000</v>
+        <v>14520000</v>
       </c>
       <c r="C30" t="n">
-        <v>4606452000</v>
+        <v>3051916000</v>
       </c>
       <c r="D30" t="n">
-        <v>4399220000</v>
+        <v>2834859000</v>
       </c>
       <c r="E30" t="n">
-        <v>4000183000</v>
+        <v>2681975000</v>
       </c>
       <c r="F30" t="n">
-        <v>8583000000</v>
+        <v>7131000000</v>
       </c>
       <c r="G30" t="n">
-        <v>9536000000</v>
+        <v>8340000000</v>
       </c>
       <c r="H30" t="n">
-        <v>8782000000</v>
+        <v>8446000000</v>
       </c>
       <c r="I30" t="n">
-        <v>9725000000</v>
+        <v>8409000000</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Short-term debt</t>
+          <t>Total long-term debt</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>498054000</v>
+        <v>685808000</v>
       </c>
       <c r="C31" t="n">
-        <v>2588809000</v>
+        <v>4606452000</v>
       </c>
       <c r="D31" t="n">
-        <v/>
+        <v>4399220000</v>
       </c>
       <c r="E31" t="n">
-        <v>4399220000</v>
+        <v>4000183000</v>
       </c>
       <c r="F31" t="n">
-        <v>5940000000</v>
+        <v>8583000000</v>
       </c>
       <c r="G31" t="n">
-        <v>8583000000</v>
+        <v>9536000000</v>
       </c>
       <c r="H31" t="n">
-        <v>9536000000</v>
+        <v>8782000000</v>
       </c>
       <c r="I31" t="n">
-        <v>8782000000</v>
+        <v>9725000000</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Accounts payable</t>
+          <t>Short-term debt</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>831317000</v>
+        <v>498054000</v>
       </c>
       <c r="C32" t="n">
-        <v>1448578000</v>
+        <v>2588809000</v>
       </c>
       <c r="D32" t="n">
-        <v>1527587000</v>
+        <v/>
       </c>
       <c r="E32" t="n">
-        <v>1836888000</v>
+        <v>4399220000</v>
       </c>
       <c r="F32" t="n">
-        <v>2731000000</v>
+        <v>5940000000</v>
       </c>
       <c r="G32" t="n">
-        <v>2767000000</v>
+        <v>8583000000</v>
       </c>
       <c r="H32" t="n">
-        <v>3157000000</v>
+        <v>9536000000</v>
       </c>
       <c r="I32" t="n">
-        <v>4614000000</v>
+        <v>8782000000</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Total short-term debt</t>
+          <t>Accounts payable</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1581401000</v>
+        <v>831317000</v>
       </c>
       <c r="C33" t="n">
-        <v>3551643000</v>
+        <v>1448578000</v>
       </c>
       <c r="D33" t="n">
-        <v>2955080000</v>
+        <v>1527587000</v>
       </c>
       <c r="E33" t="n">
-        <v>4014890000</v>
+        <v>1836888000</v>
       </c>
       <c r="F33" t="n">
-        <v>8824000000</v>
+        <v>2731000000</v>
       </c>
       <c r="G33" t="n">
-        <v>6516000000</v>
+        <v>2767000000</v>
       </c>
       <c r="H33" t="n">
-        <v>9471000000</v>
+        <v>3157000000</v>
       </c>
       <c r="I33" t="n">
-        <v>12250000000</v>
+        <v>4614000000</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Total debt</t>
+          <t>Total short-term debt</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>2267209000</v>
+        <v>1581401000</v>
       </c>
       <c r="C34" t="n">
-        <v>8158095000</v>
+        <v>3551643000</v>
       </c>
       <c r="D34" t="n">
-        <v>7354300000</v>
+        <v>2955080000</v>
       </c>
       <c r="E34" t="n">
-        <v>8015073000</v>
+        <v>4014890000</v>
       </c>
       <c r="F34" t="n">
-        <v>17407000000</v>
+        <v>8824000000</v>
       </c>
       <c r="G34" t="n">
-        <v>16052000000</v>
+        <v>6516000000</v>
       </c>
       <c r="H34" t="n">
-        <v>18253000000</v>
+        <v>9471000000</v>
       </c>
       <c r="I34" t="n">
-        <v>21975000000</v>
+        <v>12250000000</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>TOTAL EQUITY AND LIABILITIES</t>
+          <t>Total debt</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>11024652000</v>
+        <v>2267209000</v>
       </c>
       <c r="C35" t="n">
-        <v>14476853000</v>
+        <v>8158095000</v>
       </c>
       <c r="D35" t="n">
-        <v>14813342000</v>
+        <v>7354300000</v>
       </c>
       <c r="E35" t="n">
-        <v>16347935000</v>
+        <v>8015073000</v>
       </c>
       <c r="F35" t="n">
-        <v>31129000000</v>
+        <v>17407000000</v>
       </c>
       <c r="G35" t="n">
-        <v>29004000000</v>
+        <v>16052000000</v>
       </c>
       <c r="H35" t="n">
-        <v>30888000000</v>
+        <v>18253000000</v>
       </c>
       <c r="I35" t="n">
-        <v>41850000000</v>
+        <v>21975000000</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Property, plant and equipment</t>
+          <t>TOTAL EQUITY AND LIABILITIES</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v/>
+        <v>11024652000</v>
       </c>
       <c r="C36" t="n">
-        <v/>
+        <v>14476853000</v>
       </c>
       <c r="D36" t="n">
-        <v/>
+        <v>14813342000</v>
       </c>
       <c r="E36" t="n">
-        <v/>
+        <v>16347935000</v>
       </c>
       <c r="F36" t="n">
-        <v>12445000000</v>
+        <v>31129000000</v>
       </c>
       <c r="G36" t="n">
-        <v>13202000000</v>
+        <v>29004000000</v>
       </c>
       <c r="H36" t="n">
-        <v>14131000000</v>
+        <v>30888000000</v>
       </c>
       <c r="I36" t="n">
-        <v>15722000000</v>
+        <v>41850000000</v>
       </c>
     </row>
     <row r="37">
